--- a/results_analysis/spark_motorFailure_resumo.xlsx
+++ b/results_analysis/spark_motorFailure_resumo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\MLTool_matlab\results_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC5875B-A021-4812-B41D-755707A31FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F304BD9-B84B-41B7-A41F-9CE0FEB14CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="734" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,6 +22,7 @@
     <sheet name="K_mean" sheetId="10" r:id="rId7"/>
     <sheet name="hp_best" sheetId="12" r:id="rId8"/>
     <sheet name="v1_v2_best" sheetId="13" r:id="rId9"/>
+    <sheet name="Mconf" sheetId="14" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -126,9 +127,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -165,7 +168,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -502,30 +505,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -548,7 +527,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -652,64 +631,28 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -718,7 +661,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -731,38 +694,82 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1066,19 +1073,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1126,13 +1133,13 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="46">
+      <c r="D5" s="30">
         <v>0.76973684210526305</v>
       </c>
-      <c r="E5" s="47">
+      <c r="E5" s="12">
         <v>0.90789473684210498</v>
       </c>
-      <c r="F5" s="47">
+      <c r="F5" s="12">
         <v>0.84868421052631604</v>
       </c>
       <c r="G5" s="13">
@@ -1141,13 +1148,13 @@
       <c r="H5" s="13">
         <v>0.96710526315789502</v>
       </c>
-      <c r="I5" s="47">
+      <c r="I5" s="12">
         <v>0.92763157894736903</v>
       </c>
-      <c r="J5" s="47">
+      <c r="J5" s="12">
         <v>0.67763157894736903</v>
       </c>
-      <c r="K5" s="55">
+      <c r="K5" s="43">
         <v>0.94078947368421095</v>
       </c>
     </row>
@@ -1156,25 +1163,25 @@
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="48">
+      <c r="D6" s="14">
         <v>0.73684210526315796</v>
       </c>
       <c r="E6" s="16">
         <v>1</v>
       </c>
-      <c r="F6" s="39">
+      <c r="F6" s="15">
         <v>0.86184210526315796</v>
       </c>
-      <c r="G6" s="39">
+      <c r="G6" s="15">
         <v>0.96052631578947401</v>
       </c>
       <c r="H6" s="16">
         <v>0.98026315789473695</v>
       </c>
-      <c r="I6" s="39">
+      <c r="I6" s="15">
         <v>0.93421052631579005</v>
       </c>
-      <c r="J6" s="39">
+      <c r="J6" s="15">
         <v>0.74342105263157898</v>
       </c>
       <c r="K6" s="17">
@@ -1189,16 +1196,16 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="48">
+      <c r="D7" s="14">
         <v>0.78947368421052599</v>
       </c>
-      <c r="E7" s="39">
+      <c r="E7" s="15">
         <v>0.93421052631579005</v>
       </c>
-      <c r="F7" s="39">
+      <c r="F7" s="15">
         <v>0.90789473684210498</v>
       </c>
-      <c r="G7" s="39">
+      <c r="G7" s="15">
         <v>0.92763157894736903</v>
       </c>
       <c r="H7" s="16">
@@ -1207,7 +1214,7 @@
       <c r="I7" s="16">
         <v>0.94736842105263197</v>
       </c>
-      <c r="J7" s="39">
+      <c r="J7" s="15">
         <v>0.77631578947368396</v>
       </c>
       <c r="K7" s="17">
@@ -1220,25 +1227,25 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="49">
+      <c r="D8" s="18">
         <v>0.80263157894736903</v>
       </c>
       <c r="E8" s="20">
         <v>0.95394736842105299</v>
       </c>
-      <c r="F8" s="50">
+      <c r="F8" s="19">
         <v>0.83552631578947401</v>
       </c>
       <c r="G8" s="20">
         <v>0.96052631578947401</v>
       </c>
-      <c r="H8" s="50">
+      <c r="H8" s="19">
         <v>0.94078947368421095</v>
       </c>
-      <c r="I8" s="50">
+      <c r="I8" s="19">
         <v>0.93421052631579005</v>
       </c>
-      <c r="J8" s="50">
+      <c r="J8" s="19">
         <v>0.71710526315789502</v>
       </c>
       <c r="K8" s="21">
@@ -1255,10 +1262,10 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="52">
+      <c r="D9" s="29">
         <v>0.93421052631579005</v>
       </c>
-      <c r="E9" s="53">
+      <c r="E9" s="23">
         <v>0.83552631578947401</v>
       </c>
       <c r="F9" s="24">
@@ -1270,13 +1277,13 @@
       <c r="H9" s="24">
         <v>0.97368421052631604</v>
       </c>
-      <c r="I9" s="53">
+      <c r="I9" s="23">
         <v>0.5</v>
       </c>
-      <c r="J9" s="53">
+      <c r="J9" s="23">
         <v>0.93421052631579005</v>
       </c>
-      <c r="K9" s="54">
+      <c r="K9" s="42">
         <v>0.94736842105263197</v>
       </c>
     </row>
@@ -1285,25 +1292,25 @@
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="48">
+      <c r="D10" s="14">
         <v>0.94736842105263197</v>
       </c>
       <c r="E10" s="16">
         <v>0.99342105263157898</v>
       </c>
-      <c r="F10" s="39">
+      <c r="F10" s="15">
         <v>0.92763157894736903</v>
       </c>
-      <c r="G10" s="39">
+      <c r="G10" s="15">
         <v>0.96710526315789502</v>
       </c>
       <c r="H10" s="16">
         <v>0.99342105263157898</v>
       </c>
-      <c r="I10" s="39">
+      <c r="I10" s="15">
         <v>0.5</v>
       </c>
-      <c r="J10" s="39">
+      <c r="J10" s="15">
         <v>0.90789473684210498</v>
       </c>
       <c r="K10" s="17">
@@ -1318,13 +1325,13 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="48">
+      <c r="D11" s="14">
         <v>0.86842105263157898</v>
       </c>
-      <c r="E11" s="39">
+      <c r="E11" s="15">
         <v>0.91447368421052599</v>
       </c>
-      <c r="F11" s="39">
+      <c r="F11" s="15">
         <v>0.92763157894736903</v>
       </c>
       <c r="G11" s="16">
@@ -1333,10 +1340,10 @@
       <c r="H11" s="16">
         <v>0.94736842105263197</v>
       </c>
-      <c r="I11" s="39">
+      <c r="I11" s="15">
         <v>0.65789473684210498</v>
       </c>
-      <c r="J11" s="39">
+      <c r="J11" s="15">
         <v>0.88815789473684204</v>
       </c>
       <c r="K11" s="17">
@@ -1349,25 +1356,25 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="49">
+      <c r="D12" s="18">
         <v>0.94078947368421095</v>
       </c>
       <c r="E12" s="20">
         <v>0.99342105263157898</v>
       </c>
-      <c r="F12" s="50">
+      <c r="F12" s="19">
         <v>0.90789473684210498</v>
       </c>
-      <c r="G12" s="50">
+      <c r="G12" s="19">
         <v>0.95394736842105299</v>
       </c>
       <c r="H12" s="20">
         <v>1</v>
       </c>
-      <c r="I12" s="50">
+      <c r="I12" s="19">
         <v>0.63815789473684204</v>
       </c>
-      <c r="J12" s="50">
+      <c r="J12" s="19">
         <v>0.94078947368421095</v>
       </c>
       <c r="K12" s="21">
@@ -1387,7 +1394,7 @@
       <c r="D13" s="22">
         <v>0.94736842105263197</v>
       </c>
-      <c r="E13" s="53">
+      <c r="E13" s="23">
         <v>0.90131578947368396</v>
       </c>
       <c r="F13" s="24">
@@ -1396,16 +1403,16 @@
       <c r="G13" s="24">
         <v>0.94078947368421095</v>
       </c>
-      <c r="H13" s="53">
+      <c r="H13" s="23">
         <v>0.92105263157894701</v>
       </c>
-      <c r="I13" s="53">
+      <c r="I13" s="23">
         <v>0.92763157894736903</v>
       </c>
-      <c r="J13" s="53">
+      <c r="J13" s="23">
         <v>0.88815789473684204</v>
       </c>
-      <c r="K13" s="54">
+      <c r="K13" s="42">
         <v>0.91447368421052599</v>
       </c>
     </row>
@@ -1414,25 +1421,25 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="48">
+      <c r="D14" s="14">
         <v>0.92105263157894701</v>
       </c>
       <c r="E14" s="16">
         <v>1</v>
       </c>
-      <c r="F14" s="39">
+      <c r="F14" s="15">
         <v>0.92105263157894701</v>
       </c>
-      <c r="G14" s="44">
-        <v>1</v>
-      </c>
-      <c r="H14" s="39">
+      <c r="G14" s="40">
+        <v>1</v>
+      </c>
+      <c r="H14" s="15">
         <v>0.95394736842105299</v>
       </c>
-      <c r="I14" s="39">
+      <c r="I14" s="15">
         <v>0.94078947368421095</v>
       </c>
-      <c r="J14" s="39">
+      <c r="J14" s="15">
         <v>0.90131578947368396</v>
       </c>
       <c r="K14" s="17">
@@ -1447,16 +1454,16 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="48">
+      <c r="D15" s="14">
         <v>0.67105263157894701</v>
       </c>
-      <c r="E15" s="39">
+      <c r="E15" s="15">
         <v>0.65131578947368396</v>
       </c>
-      <c r="F15" s="39">
+      <c r="F15" s="15">
         <v>0.67105263157894701</v>
       </c>
-      <c r="G15" s="39">
+      <c r="G15" s="15">
         <v>0.67105263157894701</v>
       </c>
       <c r="H15" s="16">
@@ -1465,10 +1472,10 @@
       <c r="I15" s="16">
         <v>0.68421052631579005</v>
       </c>
-      <c r="J15" s="39">
+      <c r="J15" s="15">
         <v>0.61184210526315796</v>
       </c>
-      <c r="K15" s="38">
+      <c r="K15" s="26">
         <v>0.65131578947368396</v>
       </c>
     </row>
@@ -1478,28 +1485,28 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="49">
+      <c r="D16" s="18">
         <v>0.67105263157894701</v>
       </c>
-      <c r="E16" s="50">
+      <c r="E16" s="19">
         <v>0.53947368421052599</v>
       </c>
-      <c r="F16" s="50">
+      <c r="F16" s="19">
         <v>0.70394736842105299</v>
       </c>
-      <c r="G16" s="50">
+      <c r="G16" s="19">
         <v>0.66447368421052599</v>
       </c>
-      <c r="H16" s="50">
+      <c r="H16" s="19">
         <v>0.67763157894736903</v>
       </c>
-      <c r="I16" s="50">
+      <c r="I16" s="19">
         <v>0.57236842105263197</v>
       </c>
-      <c r="J16" s="50">
+      <c r="J16" s="19">
         <v>0.61184210526315796</v>
       </c>
-      <c r="K16" s="51">
+      <c r="K16" s="27">
         <v>0.61842105263157898</v>
       </c>
     </row>
@@ -1519,7 +1526,7 @@
       <c r="E17" s="24">
         <v>0.94078947368421095</v>
       </c>
-      <c r="F17" s="53">
+      <c r="F17" s="23">
         <v>0.90789473684210498</v>
       </c>
       <c r="G17" s="24">
@@ -1528,10 +1535,10 @@
       <c r="H17" s="24">
         <v>0.95394736842105299</v>
       </c>
-      <c r="I17" s="53">
+      <c r="I17" s="23">
         <v>0.83552631578947401</v>
       </c>
-      <c r="J17" s="53">
+      <c r="J17" s="23">
         <v>0.90789473684210498</v>
       </c>
       <c r="K17" s="25">
@@ -1543,25 +1550,25 @@
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="48">
+      <c r="D18" s="14">
         <v>0.93421052631579005</v>
       </c>
       <c r="E18" s="16">
         <v>0.98026315789473695</v>
       </c>
-      <c r="F18" s="39">
+      <c r="F18" s="15">
         <v>0.92105263157894701</v>
       </c>
       <c r="G18" s="16">
         <v>0.95394736842105299</v>
       </c>
-      <c r="H18" s="39">
+      <c r="H18" s="15">
         <v>0.92763157894736903</v>
       </c>
-      <c r="I18" s="39">
+      <c r="I18" s="15">
         <v>0.82236842105263197</v>
       </c>
-      <c r="J18" s="39">
+      <c r="J18" s="15">
         <v>0.91447368421052599</v>
       </c>
       <c r="K18" s="17">
@@ -1576,13 +1583,13 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="48">
+      <c r="D19" s="14">
         <v>0.73684210526315796</v>
       </c>
-      <c r="E19" s="39">
+      <c r="E19" s="15">
         <v>0.89473684210526305</v>
       </c>
-      <c r="F19" s="39">
+      <c r="F19" s="15">
         <v>0.89473684210526305</v>
       </c>
       <c r="G19" s="16">
@@ -1591,10 +1598,10 @@
       <c r="H19" s="16">
         <v>0.94078947368421095</v>
       </c>
-      <c r="I19" s="39">
+      <c r="I19" s="15">
         <v>0.84868421052631604</v>
       </c>
-      <c r="J19" s="39">
+      <c r="J19" s="15">
         <v>0.82236842105263197</v>
       </c>
       <c r="K19" s="17">
@@ -1607,25 +1614,25 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="49">
+      <c r="D20" s="18">
         <v>0.76315789473684204</v>
       </c>
       <c r="E20" s="20">
         <v>1</v>
       </c>
-      <c r="F20" s="50">
+      <c r="F20" s="19">
         <v>0.91447368421052599</v>
       </c>
       <c r="G20" s="20">
         <v>0.98684210526315796</v>
       </c>
-      <c r="H20" s="50">
+      <c r="H20" s="19">
         <v>0.97368421052631604</v>
       </c>
-      <c r="I20" s="50">
+      <c r="I20" s="19">
         <v>0.75657894736842102</v>
       </c>
-      <c r="J20" s="50">
+      <c r="J20" s="19">
         <v>0.75</v>
       </c>
       <c r="K20" s="21">
@@ -1968,6 +1975,18 @@
     <mergeCell ref="A1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8065C56F-AEED-4D36-9CB5-AF6203A45422}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
@@ -1994,19 +2013,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2351,7 +2370,7 @@
       <c r="F14" s="15">
         <v>0.82236842105263197</v>
       </c>
-      <c r="G14" s="44">
+      <c r="G14" s="40">
         <v>0.94605263157894803</v>
       </c>
       <c r="H14" s="16">
@@ -2363,7 +2382,7 @@
       <c r="J14" s="15">
         <v>0.75592105263157905</v>
       </c>
-      <c r="K14" s="38">
+      <c r="K14" s="26">
         <v>0.87302631578947398</v>
       </c>
     </row>
@@ -2471,10 +2490,10 @@
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="40">
+      <c r="D18" s="37">
         <v>0.91052631578947396</v>
       </c>
-      <c r="E18" s="39">
+      <c r="E18" s="15">
         <v>0.90526315789473699</v>
       </c>
       <c r="F18" s="15">
@@ -2922,19 +2941,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3066,7 +3085,7 @@
       <c r="J7" s="15">
         <v>0.67434210526315796</v>
       </c>
-      <c r="K7" s="39">
+      <c r="K7" s="15">
         <v>0.85197368421052599</v>
       </c>
     </row>
@@ -3279,7 +3298,7 @@
       <c r="F14" s="15">
         <v>0.83552631578947401</v>
       </c>
-      <c r="G14" s="44">
+      <c r="G14" s="40">
         <v>0.95394736842105299</v>
       </c>
       <c r="H14" s="15">
@@ -3692,19 +3711,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3752,28 +3771,28 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="41">
+      <c r="D5" s="38">
         <v>31</v>
       </c>
-      <c r="E5" s="41">
+      <c r="E5" s="38">
         <v>218</v>
       </c>
-      <c r="F5" s="41">
+      <c r="F5" s="38">
         <v>133</v>
       </c>
-      <c r="G5" s="42">
+      <c r="G5" s="39">
         <v>239</v>
       </c>
-      <c r="H5" s="42">
+      <c r="H5" s="39">
         <v>241</v>
       </c>
-      <c r="I5" s="42">
+      <c r="I5" s="39">
         <v>195</v>
       </c>
-      <c r="J5" s="41">
+      <c r="J5" s="38">
         <v>9</v>
       </c>
-      <c r="K5" s="41">
+      <c r="K5" s="38">
         <v>267</v>
       </c>
     </row>
@@ -3782,28 +3801,28 @@
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="41">
+      <c r="D6" s="38">
         <v>16</v>
       </c>
-      <c r="E6" s="41">
+      <c r="E6" s="38">
         <v>274</v>
       </c>
-      <c r="F6" s="41">
+      <c r="F6" s="38">
         <v>103</v>
       </c>
-      <c r="G6" s="42">
+      <c r="G6" s="39">
         <v>221</v>
       </c>
-      <c r="H6" s="42">
+      <c r="H6" s="39">
         <v>216</v>
       </c>
-      <c r="I6" s="42">
+      <c r="I6" s="39">
         <v>269</v>
       </c>
-      <c r="J6" s="41">
+      <c r="J6" s="38">
         <v>12</v>
       </c>
-      <c r="K6" s="42">
+      <c r="K6" s="39">
         <v>217</v>
       </c>
     </row>
@@ -3815,28 +3834,28 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="41">
+      <c r="D7" s="38">
         <v>42</v>
       </c>
-      <c r="E7" s="41">
+      <c r="E7" s="38">
         <v>216</v>
       </c>
-      <c r="F7" s="41">
+      <c r="F7" s="38">
         <v>154</v>
       </c>
-      <c r="G7" s="42">
+      <c r="G7" s="39">
         <v>217</v>
       </c>
-      <c r="H7" s="42">
+      <c r="H7" s="39">
         <v>217</v>
       </c>
-      <c r="I7" s="42">
+      <c r="I7" s="39">
         <v>281</v>
       </c>
-      <c r="J7" s="41">
+      <c r="J7" s="38">
         <v>32</v>
       </c>
-      <c r="K7" s="43">
+      <c r="K7" s="38">
         <v>216</v>
       </c>
     </row>
@@ -3846,28 +3865,28 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="41">
+      <c r="D8" s="38">
         <v>30</v>
       </c>
-      <c r="E8" s="41">
+      <c r="E8" s="38">
         <v>281</v>
       </c>
-      <c r="F8" s="41">
+      <c r="F8" s="38">
         <v>29</v>
       </c>
-      <c r="G8" s="42">
+      <c r="G8" s="39">
         <v>218</v>
       </c>
-      <c r="H8" s="41">
+      <c r="H8" s="38">
         <v>218</v>
       </c>
-      <c r="I8" s="42">
+      <c r="I8" s="39">
         <v>281</v>
       </c>
-      <c r="J8" s="41">
+      <c r="J8" s="38">
         <v>29</v>
       </c>
-      <c r="K8" s="42">
+      <c r="K8" s="39">
         <v>216</v>
       </c>
     </row>
@@ -3881,28 +3900,28 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="41">
+      <c r="D9" s="38">
         <v>185</v>
       </c>
-      <c r="E9" s="41">
+      <c r="E9" s="38">
         <v>164</v>
       </c>
-      <c r="F9" s="41">
+      <c r="F9" s="38">
         <v>188</v>
       </c>
-      <c r="G9" s="42">
+      <c r="G9" s="39">
         <v>216</v>
       </c>
-      <c r="H9" s="42">
+      <c r="H9" s="39">
         <v>217</v>
       </c>
-      <c r="I9" s="41">
-        <v>1</v>
-      </c>
-      <c r="J9" s="41">
+      <c r="I9" s="38">
+        <v>1</v>
+      </c>
+      <c r="J9" s="38">
         <v>184</v>
       </c>
-      <c r="K9" s="42">
+      <c r="K9" s="39">
         <v>215</v>
       </c>
     </row>
@@ -3911,28 +3930,28 @@
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="41">
+      <c r="D10" s="38">
         <v>183</v>
       </c>
-      <c r="E10" s="41">
+      <c r="E10" s="38">
         <v>216</v>
       </c>
-      <c r="F10" s="41">
+      <c r="F10" s="38">
         <v>152</v>
       </c>
-      <c r="G10" s="42">
+      <c r="G10" s="39">
         <v>217</v>
       </c>
-      <c r="H10" s="42">
+      <c r="H10" s="39">
         <v>216</v>
       </c>
-      <c r="I10" s="41">
-        <v>1</v>
-      </c>
-      <c r="J10" s="41">
+      <c r="I10" s="38">
+        <v>1</v>
+      </c>
+      <c r="J10" s="38">
         <v>158</v>
       </c>
-      <c r="K10" s="42">
+      <c r="K10" s="39">
         <v>216</v>
       </c>
     </row>
@@ -3944,28 +3963,28 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="42">
+      <c r="D11" s="39">
         <v>54</v>
       </c>
-      <c r="E11" s="41">
+      <c r="E11" s="38">
         <v>217</v>
       </c>
-      <c r="F11" s="41">
+      <c r="F11" s="38">
         <v>156</v>
       </c>
-      <c r="G11" s="42">
+      <c r="G11" s="39">
         <v>201</v>
       </c>
-      <c r="H11" s="42">
+      <c r="H11" s="39">
         <v>215</v>
       </c>
-      <c r="I11" s="41">
-        <v>2</v>
-      </c>
-      <c r="J11" s="41">
+      <c r="I11" s="38">
+        <v>2</v>
+      </c>
+      <c r="J11" s="38">
         <v>157</v>
       </c>
-      <c r="K11" s="42">
+      <c r="K11" s="39">
         <v>217</v>
       </c>
     </row>
@@ -3975,28 +3994,28 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="41">
+      <c r="D12" s="38">
         <v>180</v>
       </c>
-      <c r="E12" s="41">
+      <c r="E12" s="38">
         <v>217</v>
       </c>
-      <c r="F12" s="41">
+      <c r="F12" s="38">
         <v>177</v>
       </c>
-      <c r="G12" s="42">
+      <c r="G12" s="39">
         <v>217</v>
       </c>
-      <c r="H12" s="42">
+      <c r="H12" s="39">
         <v>218</v>
       </c>
-      <c r="I12" s="41">
-        <v>2</v>
-      </c>
-      <c r="J12" s="41">
+      <c r="I12" s="38">
+        <v>2</v>
+      </c>
+      <c r="J12" s="38">
         <v>178</v>
       </c>
-      <c r="K12" s="42">
+      <c r="K12" s="39">
         <v>217</v>
       </c>
     </row>
@@ -4010,28 +4029,28 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="42">
+      <c r="D13" s="39">
         <v>77</v>
       </c>
-      <c r="E13" s="41">
+      <c r="E13" s="38">
         <v>80</v>
       </c>
-      <c r="F13" s="41">
+      <c r="F13" s="38">
         <v>71</v>
       </c>
-      <c r="G13" s="42">
+      <c r="G13" s="39">
         <v>79</v>
       </c>
-      <c r="H13" s="41">
+      <c r="H13" s="38">
         <v>75</v>
       </c>
-      <c r="I13" s="42">
+      <c r="I13" s="39">
         <v>69</v>
       </c>
-      <c r="J13" s="41">
+      <c r="J13" s="38">
         <v>66</v>
       </c>
-      <c r="K13" s="42">
+      <c r="K13" s="39">
         <v>72</v>
       </c>
     </row>
@@ -4040,28 +4059,28 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="41">
+      <c r="D14" s="38">
         <v>66</v>
       </c>
-      <c r="E14" s="41">
+      <c r="E14" s="38">
         <v>45</v>
       </c>
-      <c r="F14" s="41">
+      <c r="F14" s="38">
         <v>87</v>
       </c>
-      <c r="G14" s="45">
+      <c r="G14" s="41">
         <v>47</v>
       </c>
-      <c r="H14" s="41">
+      <c r="H14" s="38">
         <v>78</v>
       </c>
-      <c r="I14" s="42">
+      <c r="I14" s="39">
         <v>66</v>
       </c>
-      <c r="J14" s="41">
+      <c r="J14" s="38">
         <v>65</v>
       </c>
-      <c r="K14" s="42">
+      <c r="K14" s="39">
         <v>45</v>
       </c>
     </row>
@@ -4073,28 +4092,28 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="41">
-        <v>2</v>
-      </c>
-      <c r="E15" s="41">
-        <v>2</v>
-      </c>
-      <c r="F15" s="41">
-        <v>2</v>
-      </c>
-      <c r="G15" s="41">
-        <v>2</v>
-      </c>
-      <c r="H15" s="41">
-        <v>2</v>
-      </c>
-      <c r="I15" s="41">
-        <v>2</v>
-      </c>
-      <c r="J15" s="41">
-        <v>2</v>
-      </c>
-      <c r="K15" s="41">
+      <c r="D15" s="38">
+        <v>2</v>
+      </c>
+      <c r="E15" s="38">
+        <v>2</v>
+      </c>
+      <c r="F15" s="38">
+        <v>2</v>
+      </c>
+      <c r="G15" s="38">
+        <v>2</v>
+      </c>
+      <c r="H15" s="38">
+        <v>2</v>
+      </c>
+      <c r="I15" s="38">
+        <v>2</v>
+      </c>
+      <c r="J15" s="38">
+        <v>2</v>
+      </c>
+      <c r="K15" s="38">
         <v>2</v>
       </c>
     </row>
@@ -4104,28 +4123,28 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="41">
-        <v>2</v>
-      </c>
-      <c r="E16" s="41">
-        <v>2</v>
-      </c>
-      <c r="F16" s="41">
+      <c r="D16" s="38">
+        <v>2</v>
+      </c>
+      <c r="E16" s="38">
+        <v>2</v>
+      </c>
+      <c r="F16" s="38">
         <v>12</v>
       </c>
-      <c r="G16" s="41">
-        <v>2</v>
-      </c>
-      <c r="H16" s="41">
-        <v>2</v>
-      </c>
-      <c r="I16" s="41">
-        <v>2</v>
-      </c>
-      <c r="J16" s="41">
-        <v>2</v>
-      </c>
-      <c r="K16" s="41">
+      <c r="G16" s="38">
+        <v>2</v>
+      </c>
+      <c r="H16" s="38">
+        <v>2</v>
+      </c>
+      <c r="I16" s="38">
+        <v>2</v>
+      </c>
+      <c r="J16" s="38">
+        <v>2</v>
+      </c>
+      <c r="K16" s="38">
         <v>2</v>
       </c>
     </row>
@@ -4139,28 +4158,28 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="41">
+      <c r="D17" s="38">
         <v>258</v>
       </c>
-      <c r="E17" s="42">
+      <c r="E17" s="39">
         <v>169</v>
       </c>
-      <c r="F17" s="41">
+      <c r="F17" s="38">
         <v>180</v>
       </c>
-      <c r="G17" s="42">
+      <c r="G17" s="39">
         <v>177</v>
       </c>
-      <c r="H17" s="42">
+      <c r="H17" s="39">
         <v>158</v>
       </c>
-      <c r="I17" s="41">
+      <c r="I17" s="38">
         <v>71</v>
       </c>
-      <c r="J17" s="41">
+      <c r="J17" s="38">
         <v>232</v>
       </c>
-      <c r="K17" s="42">
+      <c r="K17" s="39">
         <v>281</v>
       </c>
     </row>
@@ -4169,28 +4188,28 @@
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="42">
+      <c r="D18" s="39">
         <v>281</v>
       </c>
-      <c r="E18" s="41">
+      <c r="E18" s="38">
         <v>281</v>
       </c>
-      <c r="F18" s="41">
+      <c r="F18" s="38">
         <v>251</v>
       </c>
-      <c r="G18" s="42">
+      <c r="G18" s="39">
         <v>121</v>
       </c>
-      <c r="H18" s="42">
+      <c r="H18" s="39">
         <v>277</v>
       </c>
-      <c r="I18" s="41">
+      <c r="I18" s="38">
         <v>79</v>
       </c>
-      <c r="J18" s="41">
+      <c r="J18" s="38">
         <v>206</v>
       </c>
-      <c r="K18" s="42">
+      <c r="K18" s="39">
         <v>281</v>
       </c>
     </row>
@@ -4202,28 +4221,28 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="41">
+      <c r="D19" s="38">
         <v>15</v>
       </c>
-      <c r="E19" s="41">
+      <c r="E19" s="38">
         <v>145</v>
       </c>
-      <c r="F19" s="41">
+      <c r="F19" s="38">
         <v>158</v>
       </c>
-      <c r="G19" s="42">
+      <c r="G19" s="39">
         <v>217</v>
       </c>
-      <c r="H19" s="42">
+      <c r="H19" s="39">
         <v>217</v>
       </c>
-      <c r="I19" s="42">
+      <c r="I19" s="39">
         <v>89</v>
       </c>
-      <c r="J19" s="41">
+      <c r="J19" s="38">
         <v>116</v>
       </c>
-      <c r="K19" s="41">
+      <c r="K19" s="38">
         <v>217</v>
       </c>
     </row>
@@ -4233,28 +4252,28 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="41">
+      <c r="D20" s="38">
         <v>13</v>
       </c>
-      <c r="E20" s="41">
+      <c r="E20" s="38">
         <v>243</v>
       </c>
-      <c r="F20" s="41">
+      <c r="F20" s="38">
         <v>213</v>
       </c>
-      <c r="G20" s="42">
+      <c r="G20" s="39">
         <v>226</v>
       </c>
-      <c r="H20" s="42">
+      <c r="H20" s="39">
         <v>217</v>
       </c>
-      <c r="I20" s="41">
+      <c r="I20" s="38">
         <v>95</v>
       </c>
-      <c r="J20" s="41">
+      <c r="J20" s="38">
         <v>52</v>
       </c>
-      <c r="K20" s="42">
+      <c r="K20" s="39">
         <v>243</v>
       </c>
     </row>
@@ -4462,19 +4481,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4522,28 +4541,28 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="41">
+      <c r="D5" s="38">
         <v>17.100000000000001</v>
       </c>
-      <c r="E5" s="41">
+      <c r="E5" s="38">
         <v>100.1</v>
       </c>
-      <c r="F5" s="41">
+      <c r="F5" s="38">
         <v>46.8</v>
       </c>
-      <c r="G5" s="42">
+      <c r="G5" s="39">
         <v>151.4</v>
       </c>
-      <c r="H5" s="42">
+      <c r="H5" s="39">
         <v>178.6</v>
       </c>
-      <c r="I5" s="42">
+      <c r="I5" s="39">
         <v>176.3</v>
       </c>
-      <c r="J5" s="41">
+      <c r="J5" s="38">
         <v>7.5</v>
       </c>
-      <c r="K5" s="41">
+      <c r="K5" s="38">
         <v>95.6</v>
       </c>
     </row>
@@ -4552,28 +4571,28 @@
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="41">
+      <c r="D6" s="38">
         <v>16.7</v>
       </c>
-      <c r="E6" s="41">
+      <c r="E6" s="38">
         <v>156.80000000000001</v>
       </c>
-      <c r="F6" s="41">
+      <c r="F6" s="38">
         <v>33.1</v>
       </c>
-      <c r="G6" s="42">
+      <c r="G6" s="39">
         <v>152.1</v>
       </c>
-      <c r="H6" s="42">
+      <c r="H6" s="39">
         <v>164.9</v>
       </c>
-      <c r="I6" s="42">
+      <c r="I6" s="39">
         <v>173.8</v>
       </c>
-      <c r="J6" s="41">
+      <c r="J6" s="38">
         <v>7.6</v>
       </c>
-      <c r="K6" s="42">
+      <c r="K6" s="39">
         <v>158.1</v>
       </c>
     </row>
@@ -4585,28 +4604,28 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="41">
+      <c r="D7" s="38">
         <v>22.3</v>
       </c>
-      <c r="E7" s="41">
+      <c r="E7" s="38">
         <v>85.7</v>
       </c>
-      <c r="F7" s="41">
+      <c r="F7" s="38">
         <v>68.7</v>
       </c>
-      <c r="G7" s="42">
+      <c r="G7" s="39">
         <v>156.5</v>
       </c>
-      <c r="H7" s="42">
+      <c r="H7" s="39">
         <v>158.80000000000001</v>
       </c>
-      <c r="I7" s="42">
+      <c r="I7" s="39">
         <v>202.7</v>
       </c>
-      <c r="J7" s="41">
+      <c r="J7" s="38">
         <v>12.4</v>
       </c>
-      <c r="K7" s="43">
+      <c r="K7" s="38">
         <v>135.5</v>
       </c>
     </row>
@@ -4616,28 +4635,28 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="41">
+      <c r="D8" s="38">
         <v>20.399999999999999</v>
       </c>
-      <c r="E8" s="41">
+      <c r="E8" s="38">
         <v>132.5</v>
       </c>
-      <c r="F8" s="41">
+      <c r="F8" s="38">
         <v>47.4</v>
       </c>
-      <c r="G8" s="42">
+      <c r="G8" s="39">
         <v>204.5</v>
       </c>
-      <c r="H8" s="41">
+      <c r="H8" s="38">
         <v>136.4</v>
       </c>
-      <c r="I8" s="42">
+      <c r="I8" s="39">
         <v>168.1</v>
       </c>
-      <c r="J8" s="41">
+      <c r="J8" s="38">
         <v>15.6</v>
       </c>
-      <c r="K8" s="42">
+      <c r="K8" s="39">
         <v>165.8</v>
       </c>
     </row>
@@ -4651,28 +4670,28 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="41">
+      <c r="D9" s="38">
         <v>73.2</v>
       </c>
-      <c r="E9" s="41">
+      <c r="E9" s="38">
         <v>46.8</v>
       </c>
-      <c r="F9" s="41">
+      <c r="F9" s="38">
         <v>124.9</v>
       </c>
-      <c r="G9" s="42">
+      <c r="G9" s="39">
         <v>160.4</v>
       </c>
-      <c r="H9" s="42">
+      <c r="H9" s="39">
         <v>195.5</v>
       </c>
-      <c r="I9" s="41">
-        <v>1</v>
-      </c>
-      <c r="J9" s="41">
+      <c r="I9" s="38">
+        <v>1</v>
+      </c>
+      <c r="J9" s="38">
         <v>73.2</v>
       </c>
-      <c r="K9" s="42">
+      <c r="K9" s="39">
         <v>195.6</v>
       </c>
     </row>
@@ -4681,28 +4700,28 @@
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="41">
+      <c r="D10" s="38">
         <v>76.3</v>
       </c>
-      <c r="E10" s="41">
+      <c r="E10" s="38">
         <v>129.5</v>
       </c>
-      <c r="F10" s="41">
+      <c r="F10" s="38">
         <v>51.6</v>
       </c>
-      <c r="G10" s="42">
+      <c r="G10" s="39">
         <v>160.30000000000001</v>
       </c>
-      <c r="H10" s="42">
+      <c r="H10" s="39">
         <v>215</v>
       </c>
-      <c r="I10" s="41">
-        <v>1</v>
-      </c>
-      <c r="J10" s="41">
+      <c r="I10" s="38">
+        <v>1</v>
+      </c>
+      <c r="J10" s="38">
         <v>67</v>
       </c>
-      <c r="K10" s="42">
+      <c r="K10" s="39">
         <v>180.7</v>
       </c>
     </row>
@@ -4714,28 +4733,28 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="42">
+      <c r="D11" s="39">
         <v>60</v>
       </c>
-      <c r="E11" s="41">
+      <c r="E11" s="38">
         <v>112</v>
       </c>
-      <c r="F11" s="41">
+      <c r="F11" s="38">
         <v>64.7</v>
       </c>
-      <c r="G11" s="42">
+      <c r="G11" s="39">
         <v>142.4</v>
       </c>
-      <c r="H11" s="42">
+      <c r="H11" s="39">
         <v>178</v>
       </c>
-      <c r="I11" s="41">
-        <v>2</v>
-      </c>
-      <c r="J11" s="41">
+      <c r="I11" s="38">
+        <v>2</v>
+      </c>
+      <c r="J11" s="38">
         <v>40.6</v>
       </c>
-      <c r="K11" s="42">
+      <c r="K11" s="39">
         <v>117.4</v>
       </c>
     </row>
@@ -4745,28 +4764,28 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="41">
+      <c r="D12" s="38">
         <v>67.900000000000006</v>
       </c>
-      <c r="E12" s="41">
+      <c r="E12" s="38">
         <v>134</v>
       </c>
-      <c r="F12" s="41">
+      <c r="F12" s="38">
         <v>66.099999999999994</v>
       </c>
-      <c r="G12" s="42">
+      <c r="G12" s="39">
         <v>149</v>
       </c>
-      <c r="H12" s="42">
+      <c r="H12" s="39">
         <v>174.7</v>
       </c>
-      <c r="I12" s="41">
-        <v>2</v>
-      </c>
-      <c r="J12" s="41">
+      <c r="I12" s="38">
+        <v>2</v>
+      </c>
+      <c r="J12" s="38">
         <v>62.2</v>
       </c>
-      <c r="K12" s="42">
+      <c r="K12" s="39">
         <v>135.30000000000001</v>
       </c>
     </row>
@@ -4780,28 +4799,28 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="42">
+      <c r="D13" s="39">
         <v>70</v>
       </c>
-      <c r="E13" s="41">
+      <c r="E13" s="38">
         <v>75.2</v>
       </c>
-      <c r="F13" s="41">
+      <c r="F13" s="38">
         <v>52.8</v>
       </c>
-      <c r="G13" s="42">
+      <c r="G13" s="39">
         <v>64.900000000000006</v>
       </c>
-      <c r="H13" s="41">
+      <c r="H13" s="38">
         <v>57.8</v>
       </c>
-      <c r="I13" s="42">
+      <c r="I13" s="39">
         <v>67.5</v>
       </c>
-      <c r="J13" s="41">
+      <c r="J13" s="38">
         <v>48.6</v>
       </c>
-      <c r="K13" s="42">
+      <c r="K13" s="39">
         <v>59.7</v>
       </c>
     </row>
@@ -4810,28 +4829,28 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="41">
+      <c r="D14" s="38">
         <v>67.8</v>
       </c>
-      <c r="E14" s="41">
+      <c r="E14" s="38">
         <v>49.8</v>
       </c>
-      <c r="F14" s="41">
+      <c r="F14" s="38">
         <v>57.7</v>
       </c>
-      <c r="G14" s="45">
+      <c r="G14" s="41">
         <v>58.9</v>
       </c>
-      <c r="H14" s="41">
+      <c r="H14" s="38">
         <v>67.900000000000006</v>
       </c>
-      <c r="I14" s="42">
+      <c r="I14" s="39">
         <v>67.400000000000006</v>
       </c>
-      <c r="J14" s="41">
+      <c r="J14" s="38">
         <v>41.1</v>
       </c>
-      <c r="K14" s="42">
+      <c r="K14" s="39">
         <v>55.7</v>
       </c>
     </row>
@@ -4843,28 +4862,28 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="41">
-        <v>2</v>
-      </c>
-      <c r="E15" s="41">
-        <v>2</v>
-      </c>
-      <c r="F15" s="41">
-        <v>2</v>
-      </c>
-      <c r="G15" s="41">
-        <v>2</v>
-      </c>
-      <c r="H15" s="41">
-        <v>2</v>
-      </c>
-      <c r="I15" s="41">
-        <v>2</v>
-      </c>
-      <c r="J15" s="41">
-        <v>2</v>
-      </c>
-      <c r="K15" s="41">
+      <c r="D15" s="38">
+        <v>2</v>
+      </c>
+      <c r="E15" s="38">
+        <v>2</v>
+      </c>
+      <c r="F15" s="38">
+        <v>2</v>
+      </c>
+      <c r="G15" s="38">
+        <v>2</v>
+      </c>
+      <c r="H15" s="38">
+        <v>2</v>
+      </c>
+      <c r="I15" s="38">
+        <v>2</v>
+      </c>
+      <c r="J15" s="38">
+        <v>2</v>
+      </c>
+      <c r="K15" s="38">
         <v>2</v>
       </c>
     </row>
@@ -4874,28 +4893,28 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="41">
-        <v>2</v>
-      </c>
-      <c r="E16" s="41">
-        <v>2</v>
-      </c>
-      <c r="F16" s="41">
+      <c r="D16" s="38">
+        <v>2</v>
+      </c>
+      <c r="E16" s="38">
+        <v>2</v>
+      </c>
+      <c r="F16" s="38">
         <v>8</v>
       </c>
-      <c r="G16" s="41">
-        <v>2</v>
-      </c>
-      <c r="H16" s="41">
-        <v>2</v>
-      </c>
-      <c r="I16" s="41">
-        <v>2</v>
-      </c>
-      <c r="J16" s="41">
-        <v>2</v>
-      </c>
-      <c r="K16" s="41">
+      <c r="G16" s="38">
+        <v>2</v>
+      </c>
+      <c r="H16" s="38">
+        <v>2</v>
+      </c>
+      <c r="I16" s="38">
+        <v>2</v>
+      </c>
+      <c r="J16" s="38">
+        <v>2</v>
+      </c>
+      <c r="K16" s="38">
         <v>2</v>
       </c>
     </row>
@@ -4909,28 +4928,28 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="41">
+      <c r="D17" s="38">
         <v>274.2</v>
       </c>
-      <c r="E17" s="42">
+      <c r="E17" s="39">
         <v>223.6</v>
       </c>
-      <c r="F17" s="41">
+      <c r="F17" s="38">
         <v>44.2</v>
       </c>
-      <c r="G17" s="42">
+      <c r="G17" s="39">
         <v>132.69999999999999</v>
       </c>
-      <c r="H17" s="42">
+      <c r="H17" s="39">
         <v>191.5</v>
       </c>
-      <c r="I17" s="41">
+      <c r="I17" s="38">
         <v>45.1</v>
       </c>
-      <c r="J17" s="41">
+      <c r="J17" s="38">
         <v>68.400000000000006</v>
       </c>
-      <c r="K17" s="42">
+      <c r="K17" s="39">
         <v>227.6</v>
       </c>
     </row>
@@ -4939,28 +4958,28 @@
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="42">
+      <c r="D18" s="39">
         <v>275.10000000000002</v>
       </c>
-      <c r="E18" s="41">
+      <c r="E18" s="38">
         <v>234.1</v>
       </c>
-      <c r="F18" s="41">
+      <c r="F18" s="38">
         <v>79.7</v>
       </c>
-      <c r="G18" s="42">
+      <c r="G18" s="39">
         <v>134.1</v>
       </c>
-      <c r="H18" s="42">
+      <c r="H18" s="39">
         <v>212.2</v>
       </c>
-      <c r="I18" s="41">
+      <c r="I18" s="38">
         <v>55.1</v>
       </c>
-      <c r="J18" s="41">
+      <c r="J18" s="38">
         <v>46.9</v>
       </c>
-      <c r="K18" s="42">
+      <c r="K18" s="39">
         <v>204.7</v>
       </c>
     </row>
@@ -4972,28 +4991,28 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="41">
+      <c r="D19" s="38">
         <v>12.8</v>
       </c>
-      <c r="E19" s="41">
+      <c r="E19" s="38">
         <v>125.3</v>
       </c>
-      <c r="F19" s="41">
+      <c r="F19" s="38">
         <v>54.9</v>
       </c>
-      <c r="G19" s="42">
+      <c r="G19" s="39">
         <v>95.2</v>
       </c>
-      <c r="H19" s="42">
+      <c r="H19" s="39">
         <v>106.7</v>
       </c>
-      <c r="I19" s="42">
+      <c r="I19" s="39">
         <v>61.5</v>
       </c>
-      <c r="J19" s="41">
+      <c r="J19" s="38">
         <v>37.200000000000003</v>
       </c>
-      <c r="K19" s="41">
+      <c r="K19" s="38">
         <v>81.5</v>
       </c>
     </row>
@@ -5003,28 +5022,28 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="41">
+      <c r="D20" s="38">
         <v>12.3</v>
       </c>
-      <c r="E20" s="41">
+      <c r="E20" s="38">
         <v>152</v>
       </c>
-      <c r="F20" s="41">
+      <c r="F20" s="38">
         <v>71</v>
       </c>
-      <c r="G20" s="42">
+      <c r="G20" s="39">
         <v>160.4</v>
       </c>
-      <c r="H20" s="42">
+      <c r="H20" s="39">
         <v>171.1</v>
       </c>
-      <c r="I20" s="41">
+      <c r="I20" s="38">
         <v>43.6</v>
       </c>
-      <c r="J20" s="41">
+      <c r="J20" s="38">
         <v>27.7</v>
       </c>
-      <c r="K20" s="42">
+      <c r="K20" s="39">
         <v>140.80000000000001</v>
       </c>
     </row>
@@ -5232,19 +5251,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5292,28 +5311,28 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="41">
-        <v>1</v>
-      </c>
-      <c r="E5" s="41">
-        <v>1</v>
-      </c>
-      <c r="F5" s="41">
-        <v>1</v>
-      </c>
-      <c r="G5" s="42">
-        <v>1</v>
-      </c>
-      <c r="H5" s="42">
-        <v>1</v>
-      </c>
-      <c r="I5" s="42">
-        <v>1</v>
-      </c>
-      <c r="J5" s="41">
-        <v>1</v>
-      </c>
-      <c r="K5" s="41">
+      <c r="D5" s="38">
+        <v>1</v>
+      </c>
+      <c r="E5" s="38">
+        <v>1</v>
+      </c>
+      <c r="F5" s="38">
+        <v>1</v>
+      </c>
+      <c r="G5" s="39">
+        <v>1</v>
+      </c>
+      <c r="H5" s="39">
+        <v>1</v>
+      </c>
+      <c r="I5" s="39">
+        <v>1</v>
+      </c>
+      <c r="J5" s="38">
+        <v>1</v>
+      </c>
+      <c r="K5" s="38">
         <v>1</v>
       </c>
     </row>
@@ -5322,28 +5341,28 @@
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="41">
-        <v>2</v>
-      </c>
-      <c r="E6" s="41">
+      <c r="D6" s="38">
+        <v>2</v>
+      </c>
+      <c r="E6" s="38">
         <v>5</v>
       </c>
-      <c r="F6" s="41">
-        <v>2</v>
-      </c>
-      <c r="G6" s="42">
+      <c r="F6" s="38">
+        <v>2</v>
+      </c>
+      <c r="G6" s="39">
         <v>7</v>
       </c>
-      <c r="H6" s="42">
+      <c r="H6" s="39">
         <v>7</v>
       </c>
-      <c r="I6" s="42">
+      <c r="I6" s="39">
         <v>5</v>
       </c>
-      <c r="J6" s="41">
+      <c r="J6" s="38">
         <v>5</v>
       </c>
-      <c r="K6" s="42">
+      <c r="K6" s="39">
         <v>5</v>
       </c>
     </row>
@@ -5355,28 +5374,28 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="41">
-        <v>1</v>
-      </c>
-      <c r="E7" s="41">
-        <v>1</v>
-      </c>
-      <c r="F7" s="41">
-        <v>1</v>
-      </c>
-      <c r="G7" s="42">
-        <v>1</v>
-      </c>
-      <c r="H7" s="42">
-        <v>1</v>
-      </c>
-      <c r="I7" s="42">
-        <v>1</v>
-      </c>
-      <c r="J7" s="41">
-        <v>1</v>
-      </c>
-      <c r="K7" s="43">
+      <c r="D7" s="38">
+        <v>1</v>
+      </c>
+      <c r="E7" s="38">
+        <v>1</v>
+      </c>
+      <c r="F7" s="38">
+        <v>1</v>
+      </c>
+      <c r="G7" s="39">
+        <v>1</v>
+      </c>
+      <c r="H7" s="39">
+        <v>1</v>
+      </c>
+      <c r="I7" s="39">
+        <v>1</v>
+      </c>
+      <c r="J7" s="38">
+        <v>1</v>
+      </c>
+      <c r="K7" s="38">
         <v>1</v>
       </c>
     </row>
@@ -5386,28 +5405,28 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="41">
+      <c r="D8" s="38">
         <v>3</v>
       </c>
-      <c r="E8" s="41">
+      <c r="E8" s="38">
         <v>3</v>
       </c>
-      <c r="F8" s="41">
-        <v>2</v>
-      </c>
-      <c r="G8" s="42">
+      <c r="F8" s="38">
+        <v>2</v>
+      </c>
+      <c r="G8" s="39">
         <v>7</v>
       </c>
-      <c r="H8" s="41">
+      <c r="H8" s="38">
         <v>6</v>
       </c>
-      <c r="I8" s="42">
-        <v>2</v>
-      </c>
-      <c r="J8" s="41">
+      <c r="I8" s="39">
+        <v>2</v>
+      </c>
+      <c r="J8" s="38">
         <v>7</v>
       </c>
-      <c r="K8" s="42">
+      <c r="K8" s="39">
         <v>7</v>
       </c>
     </row>
@@ -5421,28 +5440,28 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="41">
-        <v>1</v>
-      </c>
-      <c r="E9" s="41">
-        <v>1</v>
-      </c>
-      <c r="F9" s="41">
-        <v>1</v>
-      </c>
-      <c r="G9" s="42">
-        <v>1</v>
-      </c>
-      <c r="H9" s="42">
-        <v>1</v>
-      </c>
-      <c r="I9" s="41">
-        <v>1</v>
-      </c>
-      <c r="J9" s="41">
-        <v>1</v>
-      </c>
-      <c r="K9" s="42">
+      <c r="D9" s="38">
+        <v>1</v>
+      </c>
+      <c r="E9" s="38">
+        <v>1</v>
+      </c>
+      <c r="F9" s="38">
+        <v>1</v>
+      </c>
+      <c r="G9" s="39">
+        <v>1</v>
+      </c>
+      <c r="H9" s="39">
+        <v>1</v>
+      </c>
+      <c r="I9" s="38">
+        <v>1</v>
+      </c>
+      <c r="J9" s="38">
+        <v>1</v>
+      </c>
+      <c r="K9" s="39">
         <v>1</v>
       </c>
     </row>
@@ -5451,28 +5470,28 @@
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="41">
+      <c r="D10" s="38">
         <v>3</v>
       </c>
-      <c r="E10" s="41">
+      <c r="E10" s="38">
         <v>3</v>
       </c>
-      <c r="F10" s="41">
-        <v>2</v>
-      </c>
-      <c r="G10" s="42">
+      <c r="F10" s="38">
+        <v>2</v>
+      </c>
+      <c r="G10" s="39">
         <v>5</v>
       </c>
-      <c r="H10" s="42">
+      <c r="H10" s="39">
         <v>7</v>
       </c>
-      <c r="I10" s="41">
+      <c r="I10" s="38">
         <v>5</v>
       </c>
-      <c r="J10" s="41">
+      <c r="J10" s="38">
         <v>3</v>
       </c>
-      <c r="K10" s="42">
+      <c r="K10" s="39">
         <v>2</v>
       </c>
     </row>
@@ -5484,28 +5503,28 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="42">
-        <v>1</v>
-      </c>
-      <c r="E11" s="41">
-        <v>1</v>
-      </c>
-      <c r="F11" s="41">
-        <v>1</v>
-      </c>
-      <c r="G11" s="42">
-        <v>1</v>
-      </c>
-      <c r="H11" s="42">
-        <v>1</v>
-      </c>
-      <c r="I11" s="41">
-        <v>1</v>
-      </c>
-      <c r="J11" s="41">
-        <v>1</v>
-      </c>
-      <c r="K11" s="42">
+      <c r="D11" s="39">
+        <v>1</v>
+      </c>
+      <c r="E11" s="38">
+        <v>1</v>
+      </c>
+      <c r="F11" s="38">
+        <v>1</v>
+      </c>
+      <c r="G11" s="39">
+        <v>1</v>
+      </c>
+      <c r="H11" s="39">
+        <v>1</v>
+      </c>
+      <c r="I11" s="38">
+        <v>1</v>
+      </c>
+      <c r="J11" s="38">
+        <v>1</v>
+      </c>
+      <c r="K11" s="39">
         <v>1</v>
       </c>
     </row>
@@ -5515,28 +5534,28 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="41">
-        <v>2</v>
-      </c>
-      <c r="E12" s="41">
+      <c r="D12" s="38">
+        <v>2</v>
+      </c>
+      <c r="E12" s="38">
         <v>5</v>
       </c>
-      <c r="F12" s="41">
-        <v>2</v>
-      </c>
-      <c r="G12" s="42">
+      <c r="F12" s="38">
+        <v>2</v>
+      </c>
+      <c r="G12" s="39">
         <v>4</v>
       </c>
-      <c r="H12" s="42">
+      <c r="H12" s="39">
         <v>7</v>
       </c>
-      <c r="I12" s="41">
+      <c r="I12" s="38">
         <v>9</v>
       </c>
-      <c r="J12" s="41">
-        <v>2</v>
-      </c>
-      <c r="K12" s="42">
+      <c r="J12" s="38">
+        <v>2</v>
+      </c>
+      <c r="K12" s="39">
         <v>5</v>
       </c>
     </row>
@@ -5550,28 +5569,28 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="42">
-        <v>1</v>
-      </c>
-      <c r="E13" s="41">
-        <v>1</v>
-      </c>
-      <c r="F13" s="41">
-        <v>1</v>
-      </c>
-      <c r="G13" s="42">
-        <v>1</v>
-      </c>
-      <c r="H13" s="41">
-        <v>1</v>
-      </c>
-      <c r="I13" s="42">
-        <v>1</v>
-      </c>
-      <c r="J13" s="41">
-        <v>1</v>
-      </c>
-      <c r="K13" s="42">
+      <c r="D13" s="39">
+        <v>1</v>
+      </c>
+      <c r="E13" s="38">
+        <v>1</v>
+      </c>
+      <c r="F13" s="38">
+        <v>1</v>
+      </c>
+      <c r="G13" s="39">
+        <v>1</v>
+      </c>
+      <c r="H13" s="38">
+        <v>1</v>
+      </c>
+      <c r="I13" s="39">
+        <v>1</v>
+      </c>
+      <c r="J13" s="38">
+        <v>1</v>
+      </c>
+      <c r="K13" s="39">
         <v>1</v>
       </c>
     </row>
@@ -5580,28 +5599,28 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="41">
-        <v>2</v>
-      </c>
-      <c r="E14" s="41">
+      <c r="D14" s="38">
+        <v>2</v>
+      </c>
+      <c r="E14" s="38">
         <v>5</v>
       </c>
-      <c r="F14" s="41">
-        <v>2</v>
-      </c>
-      <c r="G14" s="45">
+      <c r="F14" s="38">
+        <v>2</v>
+      </c>
+      <c r="G14" s="41">
         <v>7</v>
       </c>
-      <c r="H14" s="41">
+      <c r="H14" s="38">
         <v>3</v>
       </c>
-      <c r="I14" s="42">
+      <c r="I14" s="39">
         <v>4</v>
       </c>
-      <c r="J14" s="41">
-        <v>2</v>
-      </c>
-      <c r="K14" s="42">
+      <c r="J14" s="38">
+        <v>2</v>
+      </c>
+      <c r="K14" s="39">
         <v>5</v>
       </c>
     </row>
@@ -5613,28 +5632,28 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="41">
-        <v>1</v>
-      </c>
-      <c r="E15" s="41">
-        <v>1</v>
-      </c>
-      <c r="F15" s="41">
-        <v>1</v>
-      </c>
-      <c r="G15" s="41">
-        <v>1</v>
-      </c>
-      <c r="H15" s="41">
-        <v>1</v>
-      </c>
-      <c r="I15" s="41">
-        <v>1</v>
-      </c>
-      <c r="J15" s="41">
-        <v>1</v>
-      </c>
-      <c r="K15" s="41">
+      <c r="D15" s="38">
+        <v>1</v>
+      </c>
+      <c r="E15" s="38">
+        <v>1</v>
+      </c>
+      <c r="F15" s="38">
+        <v>1</v>
+      </c>
+      <c r="G15" s="38">
+        <v>1</v>
+      </c>
+      <c r="H15" s="38">
+        <v>1</v>
+      </c>
+      <c r="I15" s="38">
+        <v>1</v>
+      </c>
+      <c r="J15" s="38">
+        <v>1</v>
+      </c>
+      <c r="K15" s="38">
         <v>1</v>
       </c>
     </row>
@@ -5644,28 +5663,28 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="41">
+      <c r="D16" s="38">
         <v>6</v>
       </c>
-      <c r="E16" s="41">
+      <c r="E16" s="38">
         <v>5</v>
       </c>
-      <c r="F16" s="41">
-        <v>2</v>
-      </c>
-      <c r="G16" s="41">
+      <c r="F16" s="38">
+        <v>2</v>
+      </c>
+      <c r="G16" s="38">
         <v>5</v>
       </c>
-      <c r="H16" s="41">
+      <c r="H16" s="38">
         <v>4</v>
       </c>
-      <c r="I16" s="41">
+      <c r="I16" s="38">
         <v>8</v>
       </c>
-      <c r="J16" s="41">
+      <c r="J16" s="38">
         <v>4</v>
       </c>
-      <c r="K16" s="41">
+      <c r="K16" s="38">
         <v>4</v>
       </c>
     </row>
@@ -5679,28 +5698,28 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="41">
-        <v>1</v>
-      </c>
-      <c r="E17" s="42">
-        <v>1</v>
-      </c>
-      <c r="F17" s="41">
-        <v>1</v>
-      </c>
-      <c r="G17" s="42">
-        <v>1</v>
-      </c>
-      <c r="H17" s="42">
-        <v>1</v>
-      </c>
-      <c r="I17" s="41">
-        <v>1</v>
-      </c>
-      <c r="J17" s="41">
-        <v>1</v>
-      </c>
-      <c r="K17" s="42">
+      <c r="D17" s="38">
+        <v>1</v>
+      </c>
+      <c r="E17" s="39">
+        <v>1</v>
+      </c>
+      <c r="F17" s="38">
+        <v>1</v>
+      </c>
+      <c r="G17" s="39">
+        <v>1</v>
+      </c>
+      <c r="H17" s="39">
+        <v>1</v>
+      </c>
+      <c r="I17" s="38">
+        <v>1</v>
+      </c>
+      <c r="J17" s="38">
+        <v>1</v>
+      </c>
+      <c r="K17" s="39">
         <v>1</v>
       </c>
     </row>
@@ -5709,28 +5728,28 @@
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="42">
+      <c r="D18" s="39">
         <v>3</v>
       </c>
-      <c r="E18" s="41">
-        <v>2</v>
-      </c>
-      <c r="F18" s="41">
+      <c r="E18" s="38">
+        <v>2</v>
+      </c>
+      <c r="F18" s="38">
         <v>4</v>
       </c>
-      <c r="G18" s="42">
+      <c r="G18" s="39">
         <v>3</v>
       </c>
-      <c r="H18" s="42">
+      <c r="H18" s="39">
         <v>4</v>
       </c>
-      <c r="I18" s="41">
-        <v>2</v>
-      </c>
-      <c r="J18" s="41">
-        <v>2</v>
-      </c>
-      <c r="K18" s="42">
+      <c r="I18" s="38">
+        <v>2</v>
+      </c>
+      <c r="J18" s="38">
+        <v>2</v>
+      </c>
+      <c r="K18" s="39">
         <v>5</v>
       </c>
     </row>
@@ -5742,28 +5761,28 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="41">
-        <v>1</v>
-      </c>
-      <c r="E19" s="41">
-        <v>1</v>
-      </c>
-      <c r="F19" s="41">
-        <v>1</v>
-      </c>
-      <c r="G19" s="42">
-        <v>1</v>
-      </c>
-      <c r="H19" s="42">
-        <v>1</v>
-      </c>
-      <c r="I19" s="42">
-        <v>1</v>
-      </c>
-      <c r="J19" s="41">
-        <v>1</v>
-      </c>
-      <c r="K19" s="41">
+      <c r="D19" s="38">
+        <v>1</v>
+      </c>
+      <c r="E19" s="38">
+        <v>1</v>
+      </c>
+      <c r="F19" s="38">
+        <v>1</v>
+      </c>
+      <c r="G19" s="39">
+        <v>1</v>
+      </c>
+      <c r="H19" s="39">
+        <v>1</v>
+      </c>
+      <c r="I19" s="39">
+        <v>1</v>
+      </c>
+      <c r="J19" s="38">
+        <v>1</v>
+      </c>
+      <c r="K19" s="38">
         <v>1</v>
       </c>
     </row>
@@ -5773,28 +5792,28 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="41">
+      <c r="D20" s="38">
         <v>4</v>
       </c>
-      <c r="E20" s="41">
+      <c r="E20" s="38">
         <v>5</v>
       </c>
-      <c r="F20" s="41">
-        <v>2</v>
-      </c>
-      <c r="G20" s="42">
+      <c r="F20" s="38">
+        <v>2</v>
+      </c>
+      <c r="G20" s="39">
         <v>6</v>
       </c>
-      <c r="H20" s="42">
+      <c r="H20" s="39">
         <v>7</v>
       </c>
-      <c r="I20" s="41">
+      <c r="I20" s="38">
         <v>8</v>
       </c>
-      <c r="J20" s="41">
+      <c r="J20" s="38">
         <v>3</v>
       </c>
-      <c r="K20" s="42">
+      <c r="K20" s="39">
         <v>7</v>
       </c>
     </row>
@@ -6002,19 +6021,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6062,28 +6081,28 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="41">
-        <v>1</v>
-      </c>
-      <c r="E5" s="41">
-        <v>1</v>
-      </c>
-      <c r="F5" s="41">
-        <v>1</v>
-      </c>
-      <c r="G5" s="42">
-        <v>1</v>
-      </c>
-      <c r="H5" s="42">
-        <v>1</v>
-      </c>
-      <c r="I5" s="42">
-        <v>1</v>
-      </c>
-      <c r="J5" s="41">
-        <v>1</v>
-      </c>
-      <c r="K5" s="41">
+      <c r="D5" s="38">
+        <v>1</v>
+      </c>
+      <c r="E5" s="38">
+        <v>1</v>
+      </c>
+      <c r="F5" s="38">
+        <v>1</v>
+      </c>
+      <c r="G5" s="39">
+        <v>1</v>
+      </c>
+      <c r="H5" s="39">
+        <v>1</v>
+      </c>
+      <c r="I5" s="39">
+        <v>1</v>
+      </c>
+      <c r="J5" s="38">
+        <v>1</v>
+      </c>
+      <c r="K5" s="38">
         <v>1</v>
       </c>
     </row>
@@ -6092,28 +6111,28 @@
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="41">
+      <c r="D6" s="38">
         <v>4.0999999999999996</v>
       </c>
-      <c r="E6" s="41">
+      <c r="E6" s="38">
         <v>3.9</v>
       </c>
-      <c r="F6" s="41">
+      <c r="F6" s="38">
         <v>3</v>
       </c>
-      <c r="G6" s="42">
+      <c r="G6" s="39">
         <v>5.4</v>
       </c>
-      <c r="H6" s="42">
+      <c r="H6" s="39">
         <v>4.8</v>
       </c>
-      <c r="I6" s="42">
+      <c r="I6" s="39">
         <v>3.8</v>
       </c>
-      <c r="J6" s="41">
+      <c r="J6" s="38">
         <v>4.0999999999999996</v>
       </c>
-      <c r="K6" s="42">
+      <c r="K6" s="39">
         <v>4.5</v>
       </c>
     </row>
@@ -6125,28 +6144,28 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="41">
-        <v>1</v>
-      </c>
-      <c r="E7" s="41">
-        <v>1</v>
-      </c>
-      <c r="F7" s="41">
-        <v>1</v>
-      </c>
-      <c r="G7" s="42">
-        <v>1</v>
-      </c>
-      <c r="H7" s="42">
-        <v>1</v>
-      </c>
-      <c r="I7" s="42">
-        <v>1</v>
-      </c>
-      <c r="J7" s="41">
-        <v>1</v>
-      </c>
-      <c r="K7" s="43">
+      <c r="D7" s="38">
+        <v>1</v>
+      </c>
+      <c r="E7" s="38">
+        <v>1</v>
+      </c>
+      <c r="F7" s="38">
+        <v>1</v>
+      </c>
+      <c r="G7" s="39">
+        <v>1</v>
+      </c>
+      <c r="H7" s="39">
+        <v>1</v>
+      </c>
+      <c r="I7" s="39">
+        <v>1</v>
+      </c>
+      <c r="J7" s="38">
+        <v>1</v>
+      </c>
+      <c r="K7" s="38">
         <v>1</v>
       </c>
     </row>
@@ -6156,28 +6175,28 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="41">
+      <c r="D8" s="38">
         <v>3.6</v>
       </c>
-      <c r="E8" s="41">
+      <c r="E8" s="38">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F8" s="41">
+      <c r="F8" s="38">
         <v>4.5</v>
       </c>
-      <c r="G8" s="42">
+      <c r="G8" s="39">
         <v>3.8</v>
       </c>
-      <c r="H8" s="41">
+      <c r="H8" s="38">
         <v>4.0999999999999996</v>
       </c>
-      <c r="I8" s="42">
+      <c r="I8" s="39">
         <v>3.1</v>
       </c>
-      <c r="J8" s="41">
+      <c r="J8" s="38">
         <v>3.8</v>
       </c>
-      <c r="K8" s="42">
+      <c r="K8" s="39">
         <v>4.2</v>
       </c>
     </row>
@@ -6191,28 +6210,28 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="41">
-        <v>1</v>
-      </c>
-      <c r="E9" s="41">
-        <v>1</v>
-      </c>
-      <c r="F9" s="41">
-        <v>1</v>
-      </c>
-      <c r="G9" s="42">
-        <v>1</v>
-      </c>
-      <c r="H9" s="42">
-        <v>1</v>
-      </c>
-      <c r="I9" s="41">
-        <v>1</v>
-      </c>
-      <c r="J9" s="41">
-        <v>1</v>
-      </c>
-      <c r="K9" s="42">
+      <c r="D9" s="38">
+        <v>1</v>
+      </c>
+      <c r="E9" s="38">
+        <v>1</v>
+      </c>
+      <c r="F9" s="38">
+        <v>1</v>
+      </c>
+      <c r="G9" s="39">
+        <v>1</v>
+      </c>
+      <c r="H9" s="39">
+        <v>1</v>
+      </c>
+      <c r="I9" s="38">
+        <v>1</v>
+      </c>
+      <c r="J9" s="38">
+        <v>1</v>
+      </c>
+      <c r="K9" s="39">
         <v>1</v>
       </c>
     </row>
@@ -6221,28 +6240,28 @@
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="41">
+      <c r="D10" s="38">
         <v>4.3</v>
       </c>
-      <c r="E10" s="41">
+      <c r="E10" s="38">
         <v>3.6</v>
       </c>
-      <c r="F10" s="41">
+      <c r="F10" s="38">
         <v>3.4</v>
       </c>
-      <c r="G10" s="42">
+      <c r="G10" s="39">
         <v>4.9000000000000004</v>
       </c>
-      <c r="H10" s="42">
+      <c r="H10" s="39">
         <v>5</v>
       </c>
-      <c r="I10" s="41">
+      <c r="I10" s="38">
         <v>6.4</v>
       </c>
-      <c r="J10" s="41">
+      <c r="J10" s="38">
         <v>3.2</v>
       </c>
-      <c r="K10" s="42">
+      <c r="K10" s="39">
         <v>3.8</v>
       </c>
     </row>
@@ -6254,28 +6273,28 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="42">
-        <v>1</v>
-      </c>
-      <c r="E11" s="41">
-        <v>1</v>
-      </c>
-      <c r="F11" s="41">
-        <v>1</v>
-      </c>
-      <c r="G11" s="42">
-        <v>1</v>
-      </c>
-      <c r="H11" s="42">
-        <v>1</v>
-      </c>
-      <c r="I11" s="41">
-        <v>1</v>
-      </c>
-      <c r="J11" s="41">
-        <v>1</v>
-      </c>
-      <c r="K11" s="42">
+      <c r="D11" s="39">
+        <v>1</v>
+      </c>
+      <c r="E11" s="38">
+        <v>1</v>
+      </c>
+      <c r="F11" s="38">
+        <v>1</v>
+      </c>
+      <c r="G11" s="39">
+        <v>1</v>
+      </c>
+      <c r="H11" s="39">
+        <v>1</v>
+      </c>
+      <c r="I11" s="38">
+        <v>1</v>
+      </c>
+      <c r="J11" s="38">
+        <v>1</v>
+      </c>
+      <c r="K11" s="39">
         <v>1</v>
       </c>
     </row>
@@ -6285,28 +6304,28 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="41">
+      <c r="D12" s="38">
         <v>3.6</v>
       </c>
-      <c r="E12" s="41">
+      <c r="E12" s="38">
         <v>3.8</v>
       </c>
-      <c r="F12" s="41">
+      <c r="F12" s="38">
         <v>3.6</v>
       </c>
-      <c r="G12" s="42">
+      <c r="G12" s="39">
         <v>3.2</v>
       </c>
-      <c r="H12" s="42">
+      <c r="H12" s="39">
         <v>5.3</v>
       </c>
-      <c r="I12" s="41">
+      <c r="I12" s="38">
         <v>5.9</v>
       </c>
-      <c r="J12" s="41">
+      <c r="J12" s="38">
         <v>3.5</v>
       </c>
-      <c r="K12" s="42">
+      <c r="K12" s="39">
         <v>4.2</v>
       </c>
     </row>
@@ -6320,28 +6339,28 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="42">
-        <v>1</v>
-      </c>
-      <c r="E13" s="41">
-        <v>1</v>
-      </c>
-      <c r="F13" s="41">
-        <v>1</v>
-      </c>
-      <c r="G13" s="42">
-        <v>1</v>
-      </c>
-      <c r="H13" s="41">
-        <v>1</v>
-      </c>
-      <c r="I13" s="42">
-        <v>1</v>
-      </c>
-      <c r="J13" s="41">
-        <v>1</v>
-      </c>
-      <c r="K13" s="42">
+      <c r="D13" s="39">
+        <v>1</v>
+      </c>
+      <c r="E13" s="38">
+        <v>1</v>
+      </c>
+      <c r="F13" s="38">
+        <v>1</v>
+      </c>
+      <c r="G13" s="39">
+        <v>1</v>
+      </c>
+      <c r="H13" s="38">
+        <v>1</v>
+      </c>
+      <c r="I13" s="39">
+        <v>1</v>
+      </c>
+      <c r="J13" s="38">
+        <v>1</v>
+      </c>
+      <c r="K13" s="39">
         <v>1</v>
       </c>
     </row>
@@ -6350,28 +6369,28 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="41">
+      <c r="D14" s="38">
         <v>3.2</v>
       </c>
-      <c r="E14" s="41">
+      <c r="E14" s="38">
         <v>4.9000000000000004</v>
       </c>
-      <c r="F14" s="41">
+      <c r="F14" s="38">
         <v>3.4</v>
       </c>
-      <c r="G14" s="45">
+      <c r="G14" s="41">
         <v>4.5999999999999996</v>
       </c>
-      <c r="H14" s="41">
+      <c r="H14" s="38">
         <v>3.9</v>
       </c>
-      <c r="I14" s="42">
+      <c r="I14" s="39">
         <v>7.6</v>
       </c>
-      <c r="J14" s="41">
+      <c r="J14" s="38">
         <v>3.5</v>
       </c>
-      <c r="K14" s="42">
+      <c r="K14" s="39">
         <v>5.2</v>
       </c>
     </row>
@@ -6383,28 +6402,28 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="41">
-        <v>1</v>
-      </c>
-      <c r="E15" s="41">
-        <v>1</v>
-      </c>
-      <c r="F15" s="41">
-        <v>1</v>
-      </c>
-      <c r="G15" s="41">
-        <v>1</v>
-      </c>
-      <c r="H15" s="41">
-        <v>1</v>
-      </c>
-      <c r="I15" s="41">
-        <v>1</v>
-      </c>
-      <c r="J15" s="41">
-        <v>1</v>
-      </c>
-      <c r="K15" s="41">
+      <c r="D15" s="38">
+        <v>1</v>
+      </c>
+      <c r="E15" s="38">
+        <v>1</v>
+      </c>
+      <c r="F15" s="38">
+        <v>1</v>
+      </c>
+      <c r="G15" s="38">
+        <v>1</v>
+      </c>
+      <c r="H15" s="38">
+        <v>1</v>
+      </c>
+      <c r="I15" s="38">
+        <v>1</v>
+      </c>
+      <c r="J15" s="38">
+        <v>1</v>
+      </c>
+      <c r="K15" s="38">
         <v>1</v>
       </c>
     </row>
@@ -6414,28 +6433,28 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="41">
+      <c r="D16" s="38">
         <v>4.3</v>
       </c>
-      <c r="E16" s="41">
+      <c r="E16" s="38">
         <v>4.8</v>
       </c>
-      <c r="F16" s="41">
+      <c r="F16" s="38">
         <v>3.6</v>
       </c>
-      <c r="G16" s="41">
+      <c r="G16" s="38">
         <v>5.3</v>
       </c>
-      <c r="H16" s="41">
+      <c r="H16" s="38">
         <v>4.9000000000000004</v>
       </c>
-      <c r="I16" s="41">
+      <c r="I16" s="38">
         <v>6.5</v>
       </c>
-      <c r="J16" s="41">
+      <c r="J16" s="38">
         <v>3.6</v>
       </c>
-      <c r="K16" s="41">
+      <c r="K16" s="38">
         <v>3.9</v>
       </c>
     </row>
@@ -6449,28 +6468,28 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="41">
-        <v>1</v>
-      </c>
-      <c r="E17" s="42">
-        <v>1</v>
-      </c>
-      <c r="F17" s="41">
-        <v>1</v>
-      </c>
-      <c r="G17" s="42">
-        <v>1</v>
-      </c>
-      <c r="H17" s="42">
-        <v>1</v>
-      </c>
-      <c r="I17" s="41">
-        <v>1</v>
-      </c>
-      <c r="J17" s="41">
-        <v>1</v>
-      </c>
-      <c r="K17" s="42">
+      <c r="D17" s="38">
+        <v>1</v>
+      </c>
+      <c r="E17" s="39">
+        <v>1</v>
+      </c>
+      <c r="F17" s="38">
+        <v>1</v>
+      </c>
+      <c r="G17" s="39">
+        <v>1</v>
+      </c>
+      <c r="H17" s="39">
+        <v>1</v>
+      </c>
+      <c r="I17" s="38">
+        <v>1</v>
+      </c>
+      <c r="J17" s="38">
+        <v>1</v>
+      </c>
+      <c r="K17" s="39">
         <v>1</v>
       </c>
     </row>
@@ -6479,28 +6498,28 @@
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="42">
+      <c r="D18" s="39">
         <v>3.4</v>
       </c>
-      <c r="E18" s="41">
+      <c r="E18" s="38">
         <v>4</v>
       </c>
-      <c r="F18" s="41">
+      <c r="F18" s="38">
         <v>4.4000000000000004</v>
       </c>
-      <c r="G18" s="42">
+      <c r="G18" s="39">
         <v>4.2</v>
       </c>
-      <c r="H18" s="42">
+      <c r="H18" s="39">
         <v>3.8</v>
       </c>
-      <c r="I18" s="41">
+      <c r="I18" s="38">
         <v>4.4000000000000004</v>
       </c>
-      <c r="J18" s="41">
+      <c r="J18" s="38">
         <v>4.2</v>
       </c>
-      <c r="K18" s="42">
+      <c r="K18" s="39">
         <v>3.5</v>
       </c>
     </row>
@@ -6512,28 +6531,28 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="41">
-        <v>1</v>
-      </c>
-      <c r="E19" s="41">
-        <v>1</v>
-      </c>
-      <c r="F19" s="41">
-        <v>1</v>
-      </c>
-      <c r="G19" s="42">
-        <v>1</v>
-      </c>
-      <c r="H19" s="42">
-        <v>1</v>
-      </c>
-      <c r="I19" s="42">
-        <v>1</v>
-      </c>
-      <c r="J19" s="41">
-        <v>1</v>
-      </c>
-      <c r="K19" s="41">
+      <c r="D19" s="38">
+        <v>1</v>
+      </c>
+      <c r="E19" s="38">
+        <v>1</v>
+      </c>
+      <c r="F19" s="38">
+        <v>1</v>
+      </c>
+      <c r="G19" s="39">
+        <v>1</v>
+      </c>
+      <c r="H19" s="39">
+        <v>1</v>
+      </c>
+      <c r="I19" s="39">
+        <v>1</v>
+      </c>
+      <c r="J19" s="38">
+        <v>1</v>
+      </c>
+      <c r="K19" s="38">
         <v>1</v>
       </c>
     </row>
@@ -6543,28 +6562,28 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="41">
+      <c r="D20" s="38">
         <v>3.9</v>
       </c>
-      <c r="E20" s="41">
+      <c r="E20" s="38">
         <v>4.8</v>
       </c>
-      <c r="F20" s="41">
+      <c r="F20" s="38">
         <v>3.7</v>
       </c>
-      <c r="G20" s="42">
+      <c r="G20" s="39">
         <v>5.3</v>
       </c>
-      <c r="H20" s="42">
+      <c r="H20" s="39">
         <v>4.4000000000000004</v>
       </c>
-      <c r="I20" s="41">
+      <c r="I20" s="38">
         <v>5.2</v>
       </c>
-      <c r="J20" s="41">
+      <c r="J20" s="38">
         <v>3.8</v>
       </c>
-      <c r="K20" s="42">
+      <c r="K20" s="39">
         <v>5.2</v>
       </c>
     </row>
@@ -6754,7 +6773,7 @@
   <dimension ref="A1:P53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6762,69 +6781,68 @@
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="58" t="s">
+      <c r="F3" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="37" t="s">
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="37" t="s">
+      <c r="J3" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="59" t="s">
+      <c r="K3" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="60"/>
-      <c r="M3" s="59" t="s">
+      <c r="L3" s="54"/>
+      <c r="M3" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="60"/>
-      <c r="O3" s="59" t="s">
+      <c r="N3" s="54"/>
+      <c r="O3" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="61"/>
+      <c r="P3" s="55"/>
     </row>
     <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -6833,46 +6851,46 @@
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="70" t="s">
+      <c r="D4" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="71" t="s">
+      <c r="E4" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="71" t="s">
+      <c r="F4" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="71" t="s">
+      <c r="G4" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="71" t="s">
+      <c r="H4" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="71" t="s">
+      <c r="I4" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="71" t="s">
+      <c r="J4" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="71" t="s">
+      <c r="K4" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="71" t="s">
+      <c r="L4" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="71" t="s">
+      <c r="M4" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="N4" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="71" t="s">
+      <c r="O4" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="P4" s="72" t="s">
+      <c r="P4" s="50" t="s">
         <v>23</v>
       </c>
     </row>
@@ -6883,84 +6901,187 @@
       <c r="B5" s="3">
         <v>1</v>
       </c>
-      <c r="C5" s="65">
-        <v>1</v>
-      </c>
-      <c r="D5" s="63"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="62"/>
-      <c r="N5" s="62"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="69"/>
+      <c r="C5" s="45">
+        <v>1</v>
+      </c>
+      <c r="D5" s="80">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E5" s="67">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="68">
+        <v>1</v>
+      </c>
+      <c r="G5" s="68">
+        <v>1</v>
+      </c>
+      <c r="H5" s="68">
+        <v>3</v>
+      </c>
+      <c r="I5" s="68">
+        <v>128</v>
+      </c>
+      <c r="J5" s="68">
+        <v>2</v>
+      </c>
+      <c r="K5" s="68">
+        <v>3</v>
+      </c>
+      <c r="L5" s="68">
+        <v>4</v>
+      </c>
+      <c r="M5" s="63">
+        <v>3.125E-2</v>
+      </c>
+      <c r="N5" s="66">
+        <v>0.05</v>
+      </c>
+      <c r="O5" s="68">
+        <v>2</v>
+      </c>
+      <c r="P5" s="69">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
-      <c r="B6" s="66"/>
-      <c r="C6" s="67" t="s">
+      <c r="C6" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="64"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="57"/>
+      <c r="D6" s="71">
+        <v>4</v>
+      </c>
+      <c r="E6" s="62">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="F6" s="59">
+        <v>2</v>
+      </c>
+      <c r="G6" s="60">
+        <v>0.25</v>
+      </c>
+      <c r="H6" s="59">
+        <v>3</v>
+      </c>
+      <c r="I6" s="60">
+        <v>0.25</v>
+      </c>
+      <c r="J6" s="61">
+        <v>6.25E-2</v>
+      </c>
+      <c r="K6" s="38">
+        <v>2.6</v>
+      </c>
+      <c r="L6" s="61">
+        <v>6.25E-2</v>
+      </c>
+      <c r="M6" s="62">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="N6" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="O6" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="P6" s="26">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
-      <c r="B7" s="66">
-        <v>2</v>
-      </c>
-      <c r="C7" s="67">
-        <v>1</v>
-      </c>
-      <c r="D7" s="64"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43"/>
-      <c r="O7" s="43"/>
-      <c r="P7" s="57"/>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="46">
+        <v>1</v>
+      </c>
+      <c r="D7" s="71">
+        <v>8</v>
+      </c>
+      <c r="E7" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="G7" s="59">
+        <v>8</v>
+      </c>
+      <c r="H7" s="59">
+        <v>3</v>
+      </c>
+      <c r="I7" s="60">
+        <v>0.25</v>
+      </c>
+      <c r="J7" s="62">
+        <v>3.125E-2</v>
+      </c>
+      <c r="K7" s="38">
+        <v>0.4</v>
+      </c>
+      <c r="L7" s="59">
+        <v>16</v>
+      </c>
+      <c r="M7" s="62">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="N7" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="O7" s="62">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="P7" s="74">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
-      <c r="C8" s="68" t="s">
+      <c r="C8" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="64"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="43"/>
-      <c r="O8" s="43"/>
-      <c r="P8" s="57"/>
+      <c r="D8" s="71">
+        <v>2</v>
+      </c>
+      <c r="E8" s="62">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="F8" s="59">
+        <v>2</v>
+      </c>
+      <c r="G8" s="59">
+        <v>4</v>
+      </c>
+      <c r="H8" s="59">
+        <v>2</v>
+      </c>
+      <c r="I8" s="15">
+        <v>0.125</v>
+      </c>
+      <c r="J8" s="62">
+        <v>3.125E-2</v>
+      </c>
+      <c r="K8" s="59">
+        <v>2</v>
+      </c>
+      <c r="L8" s="59">
+        <v>32</v>
+      </c>
+      <c r="M8" s="62">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="N8" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="O8" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="P8" s="74">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -6969,84 +7090,187 @@
       <c r="B9" s="3">
         <v>1</v>
       </c>
-      <c r="C9" s="65">
-        <v>1</v>
-      </c>
-      <c r="D9" s="64"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="43"/>
-      <c r="O9" s="43"/>
-      <c r="P9" s="57"/>
+      <c r="C9" s="45">
+        <v>1</v>
+      </c>
+      <c r="D9" s="70">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E9" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="F9" s="59">
+        <v>4</v>
+      </c>
+      <c r="G9" s="61">
+        <v>6.25E-2</v>
+      </c>
+      <c r="H9" s="59">
+        <v>1</v>
+      </c>
+      <c r="I9" s="59">
+        <v>8</v>
+      </c>
+      <c r="J9" s="62">
+        <v>3.125E-2</v>
+      </c>
+      <c r="K9" s="38">
+        <v>2.4</v>
+      </c>
+      <c r="L9" s="59">
+        <v>1024</v>
+      </c>
+      <c r="M9" s="62">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="N9" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="O9" s="62">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="P9" s="73">
+        <v>6.25E-2</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
-      <c r="B10" s="66"/>
-      <c r="C10" s="67" t="s">
+      <c r="C10" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="64"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="43"/>
-      <c r="P10" s="57"/>
+      <c r="D10" s="70">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E10" s="61">
+        <v>6.25E-2</v>
+      </c>
+      <c r="F10" s="59">
+        <v>2</v>
+      </c>
+      <c r="G10" s="59">
+        <v>2</v>
+      </c>
+      <c r="H10" s="38">
+        <v>0.6</v>
+      </c>
+      <c r="I10" s="61">
+        <v>6.25E-2</v>
+      </c>
+      <c r="J10" s="62">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="K10" s="38">
+        <v>2.8</v>
+      </c>
+      <c r="L10" s="59">
+        <v>1</v>
+      </c>
+      <c r="M10" s="62">
+        <v>3.125E-2</v>
+      </c>
+      <c r="N10" s="38">
+        <v>0.1</v>
+      </c>
+      <c r="O10" s="59">
+        <v>8</v>
+      </c>
+      <c r="P10" s="74">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
-      <c r="B11" s="66">
-        <v>2</v>
-      </c>
-      <c r="C11" s="67">
-        <v>1</v>
-      </c>
-      <c r="D11" s="64"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="43"/>
-      <c r="P11" s="57"/>
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="46">
+        <v>1</v>
+      </c>
+      <c r="D11" s="71">
+        <v>1</v>
+      </c>
+      <c r="E11" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="F11" s="61">
+        <v>6.25E-2</v>
+      </c>
+      <c r="G11" s="15">
+        <v>0.125</v>
+      </c>
+      <c r="H11" s="38">
+        <v>0.6</v>
+      </c>
+      <c r="I11" s="59">
+        <v>32</v>
+      </c>
+      <c r="J11" s="59">
+        <v>2</v>
+      </c>
+      <c r="K11" s="38">
+        <v>2.6</v>
+      </c>
+      <c r="L11" s="59">
+        <v>256</v>
+      </c>
+      <c r="M11" s="61">
+        <v>6.25E-2</v>
+      </c>
+      <c r="N11" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="O11" s="62">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="P11" s="64">
+        <v>3.125E-2</v>
+      </c>
     </row>
     <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="68" t="s">
+      <c r="C12" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="64"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="43"/>
-      <c r="P12" s="57"/>
+      <c r="D12" s="71">
+        <v>4</v>
+      </c>
+      <c r="E12" s="61">
+        <v>6.25E-2</v>
+      </c>
+      <c r="F12" s="15">
+        <v>0.125</v>
+      </c>
+      <c r="G12" s="15">
+        <v>0.125</v>
+      </c>
+      <c r="H12" s="38">
+        <v>0.8</v>
+      </c>
+      <c r="I12" s="61">
+        <v>6.25E-2</v>
+      </c>
+      <c r="J12" s="62">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="K12" s="59">
+        <v>1</v>
+      </c>
+      <c r="L12" s="59">
+        <v>256</v>
+      </c>
+      <c r="M12" s="62">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="N12" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="O12" s="61">
+        <v>6.25E-2</v>
+      </c>
+      <c r="P12" s="73">
+        <v>6.25E-2</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -7055,170 +7279,376 @@
       <c r="B13" s="3">
         <v>1</v>
       </c>
-      <c r="C13" s="65">
-        <v>1</v>
-      </c>
-      <c r="D13" s="64"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="43"/>
-      <c r="O13" s="43"/>
-      <c r="P13" s="57"/>
+      <c r="C13" s="45">
+        <v>1</v>
+      </c>
+      <c r="D13" s="71">
+        <v>2</v>
+      </c>
+      <c r="E13" s="59">
+        <v>1</v>
+      </c>
+      <c r="F13" s="61">
+        <v>6.25E-2</v>
+      </c>
+      <c r="G13" s="60">
+        <v>0.25</v>
+      </c>
+      <c r="H13" s="38">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I13" s="59">
+        <v>4</v>
+      </c>
+      <c r="J13" s="62">
+        <v>9.765625E-4</v>
+      </c>
+      <c r="K13" s="38">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L13" s="59">
+        <v>4</v>
+      </c>
+      <c r="M13" s="15">
+        <v>0.125</v>
+      </c>
+      <c r="N13" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="O13" s="62">
+        <v>3.125E-2</v>
+      </c>
+      <c r="P13" s="75">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
-      <c r="B14" s="66"/>
-      <c r="C14" s="67" t="s">
+      <c r="C14" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="64"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="43"/>
-      <c r="P14" s="57"/>
+      <c r="D14" s="71">
+        <v>8</v>
+      </c>
+      <c r="E14" s="62">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="F14" s="59">
+        <v>4</v>
+      </c>
+      <c r="G14" s="15">
+        <v>0.125</v>
+      </c>
+      <c r="H14" s="59">
+        <v>2</v>
+      </c>
+      <c r="I14" s="62">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="J14" s="62">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="K14" s="38">
+        <v>2.6</v>
+      </c>
+      <c r="L14" s="62">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="M14" s="61">
+        <v>6.25E-2</v>
+      </c>
+      <c r="N14" s="60">
+        <v>0.05</v>
+      </c>
+      <c r="O14" s="59">
+        <v>2</v>
+      </c>
+      <c r="P14" s="26">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
-      <c r="B15" s="66">
-        <v>2</v>
-      </c>
-      <c r="C15" s="67">
-        <v>1</v>
-      </c>
-      <c r="D15" s="64"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="43"/>
-      <c r="P15" s="57"/>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="46">
+        <v>1</v>
+      </c>
+      <c r="D15" s="71">
+        <v>8</v>
+      </c>
+      <c r="E15" s="59">
+        <v>1</v>
+      </c>
+      <c r="F15" s="60">
+        <v>0.25</v>
+      </c>
+      <c r="G15" s="59">
+        <v>8</v>
+      </c>
+      <c r="H15" s="59">
+        <v>1</v>
+      </c>
+      <c r="I15" s="59">
+        <v>64</v>
+      </c>
+      <c r="J15" s="59">
+        <v>512</v>
+      </c>
+      <c r="K15" s="38">
+        <v>0.8</v>
+      </c>
+      <c r="L15" s="62">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="M15" s="59">
+        <v>1</v>
+      </c>
+      <c r="N15" s="60">
+        <v>0.05</v>
+      </c>
+      <c r="O15" s="62">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="P15" s="73">
+        <v>6.25E-2</v>
+      </c>
     </row>
     <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
-      <c r="C16" s="68" t="s">
+      <c r="C16" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="64"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="43"/>
-      <c r="O16" s="43"/>
-      <c r="P16" s="57"/>
+      <c r="D16" s="70">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E16" s="59">
+        <v>128</v>
+      </c>
+      <c r="F16" s="59">
+        <v>2</v>
+      </c>
+      <c r="G16" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="H16" s="38">
+        <v>0.6</v>
+      </c>
+      <c r="I16" s="59">
+        <v>1</v>
+      </c>
+      <c r="J16" s="62">
+        <v>9.765625E-4</v>
+      </c>
+      <c r="K16" s="59">
+        <v>2</v>
+      </c>
+      <c r="L16" s="59">
+        <v>256</v>
+      </c>
+      <c r="M16" s="62">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="N16" s="38">
+        <v>0.1</v>
+      </c>
+      <c r="O16" s="60">
+        <v>0.25</v>
+      </c>
+      <c r="P16" s="75">
+        <v>32</v>
+      </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="66">
-        <v>1</v>
-      </c>
-      <c r="C17" s="67">
-        <v>1</v>
-      </c>
-      <c r="D17" s="64"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="43"/>
-      <c r="N17" s="43"/>
-      <c r="O17" s="43"/>
-      <c r="P17" s="57"/>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="46">
+        <v>1</v>
+      </c>
+      <c r="D17" s="70">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E17" s="59">
+        <v>4</v>
+      </c>
+      <c r="F17" s="15">
+        <v>0.125</v>
+      </c>
+      <c r="G17" s="59">
+        <v>4</v>
+      </c>
+      <c r="H17" s="38">
+        <v>2.4</v>
+      </c>
+      <c r="I17" s="59">
+        <v>32</v>
+      </c>
+      <c r="J17" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="K17" s="59">
+        <v>1</v>
+      </c>
+      <c r="L17" s="59">
+        <v>512</v>
+      </c>
+      <c r="M17" s="62">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="N17" s="38">
+        <v>0.1</v>
+      </c>
+      <c r="O17" s="59">
+        <v>1</v>
+      </c>
+      <c r="P17" s="75">
+        <v>64</v>
+      </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
-      <c r="B18" s="66"/>
-      <c r="C18" s="67" t="s">
+      <c r="C18" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="64"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="43"/>
-      <c r="P18" s="57"/>
+      <c r="D18" s="70">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E18" s="62">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="F18" s="59">
+        <v>2</v>
+      </c>
+      <c r="G18" s="59">
+        <v>2</v>
+      </c>
+      <c r="H18" s="59">
+        <v>3</v>
+      </c>
+      <c r="I18" s="59">
+        <v>8</v>
+      </c>
+      <c r="J18" s="62">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="K18" s="59">
+        <v>2</v>
+      </c>
+      <c r="L18" s="59">
+        <v>1024</v>
+      </c>
+      <c r="M18" s="62">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="N18" s="38">
+        <v>0.1</v>
+      </c>
+      <c r="O18" s="59">
+        <v>4</v>
+      </c>
+      <c r="P18" s="26">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
-      <c r="B19" s="66">
-        <v>2</v>
-      </c>
-      <c r="C19" s="67">
-        <v>1</v>
-      </c>
-      <c r="D19" s="64"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="43"/>
-      <c r="O19" s="43"/>
-      <c r="P19" s="57"/>
+      <c r="B19" s="1">
+        <v>2</v>
+      </c>
+      <c r="C19" s="46">
+        <v>1</v>
+      </c>
+      <c r="D19" s="70">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E19" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="F19" s="59">
+        <v>2</v>
+      </c>
+      <c r="G19" s="59">
+        <v>8</v>
+      </c>
+      <c r="H19" s="38">
+        <v>2.6</v>
+      </c>
+      <c r="I19" s="15">
+        <v>0.125</v>
+      </c>
+      <c r="J19" s="61">
+        <v>6.25E-2</v>
+      </c>
+      <c r="K19" s="38">
+        <v>0.4</v>
+      </c>
+      <c r="L19" s="59">
+        <v>256</v>
+      </c>
+      <c r="M19" s="62">
+        <v>3.125E-2</v>
+      </c>
+      <c r="N19" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="O19" s="59">
+        <v>1</v>
+      </c>
+      <c r="P19" s="74">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="20" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
-      <c r="C20" s="68" t="s">
+      <c r="C20" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="64"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="43"/>
-      <c r="N20" s="43"/>
-      <c r="O20" s="43"/>
-      <c r="P20" s="57"/>
+      <c r="D20" s="72">
+        <v>8</v>
+      </c>
+      <c r="E20" s="65">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="F20" s="79">
+        <v>4</v>
+      </c>
+      <c r="G20" s="77">
+        <v>0.25</v>
+      </c>
+      <c r="H20" s="78">
+        <v>2.8</v>
+      </c>
+      <c r="I20" s="65">
+        <v>3.125E-2</v>
+      </c>
+      <c r="J20" s="65">
+        <v>3.125E-2</v>
+      </c>
+      <c r="K20" s="78">
+        <v>0.4</v>
+      </c>
+      <c r="L20" s="79">
+        <v>256</v>
+      </c>
+      <c r="M20" s="65">
+        <v>3.125E-2</v>
+      </c>
+      <c r="N20" s="19">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="O20" s="76">
+        <v>6.25E-2</v>
+      </c>
+      <c r="P20" s="81">
+        <v>6.25E-2</v>
+      </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
@@ -7463,11 +7893,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A1:O1"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="O3:P3"/>
+    <mergeCell ref="A1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7478,7 +7908,7 @@
   <dimension ref="A1:S53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7486,79 +7916,71 @@
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" customWidth="1"/>
-    <col min="8" max="8" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" customWidth="1"/>
-    <col min="10" max="10" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.5703125" customWidth="1"/>
-    <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" customWidth="1"/>
-    <col min="14" max="14" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.5703125" customWidth="1"/>
-    <col min="16" max="16" width="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8" customWidth="1"/>
-    <col min="18" max="18" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="73" t="s">
+      <c r="D3" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="59" t="s">
+      <c r="E3" s="54"/>
+      <c r="F3" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="60"/>
-      <c r="H3" s="59" t="s">
+      <c r="G3" s="54"/>
+      <c r="H3" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="60"/>
-      <c r="J3" s="59" t="s">
+      <c r="I3" s="54"/>
+      <c r="J3" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="60"/>
-      <c r="L3" s="59" t="s">
+      <c r="K3" s="54"/>
+      <c r="L3" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="60"/>
-      <c r="N3" s="59" t="s">
+      <c r="M3" s="54"/>
+      <c r="N3" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="60"/>
-      <c r="P3" s="59" t="s">
+      <c r="O3" s="54"/>
+      <c r="P3" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="59" t="s">
+      <c r="Q3" s="54"/>
+      <c r="R3" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="61"/>
+      <c r="S3" s="55"/>
     </row>
     <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -7570,52 +7992,52 @@
       <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="56" t="s">
+      <c r="E4" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="56" t="s">
+      <c r="G4" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="56" t="s">
+      <c r="H4" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="56" t="s">
+      <c r="I4" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="56" t="s">
+      <c r="J4" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="56" t="s">
+      <c r="K4" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="56" t="s">
+      <c r="L4" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="56" t="s">
+      <c r="M4" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="N4" s="56" t="s">
+      <c r="N4" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="56" t="s">
+      <c r="O4" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="P4" s="56" t="s">
+      <c r="P4" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="Q4" s="56" t="s">
+      <c r="Q4" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="56" t="s">
+      <c r="R4" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="S4" s="56" t="s">
+      <c r="S4" s="44" t="s">
         <v>28</v>
       </c>
     </row>
@@ -7629,44 +8051,108 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="62"/>
-      <c r="N5" s="62"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="69"/>
+      <c r="D5" s="58">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="E5" s="57">
+        <v>1024.001</v>
+      </c>
+      <c r="F5" s="58">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="G5" s="57">
+        <v>1024.001</v>
+      </c>
+      <c r="H5" s="58">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="I5" s="57">
+        <v>1024.001</v>
+      </c>
+      <c r="J5" s="12">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="K5" s="57">
+        <v>1024.001</v>
+      </c>
+      <c r="L5" s="12">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="M5" s="57">
+        <v>1024.001</v>
+      </c>
+      <c r="N5" s="12">
+        <v>-0.125</v>
+      </c>
+      <c r="O5" s="57">
+        <v>1024.001</v>
+      </c>
+      <c r="P5" s="58">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="Q5" s="57">
+        <v>1024.001</v>
+      </c>
+      <c r="R5" s="58">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="S5" s="57">
+        <v>1024.001</v>
+      </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="43"/>
-      <c r="S6" s="57"/>
+      <c r="D6" s="61">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="E6" s="59">
+        <v>1024.001</v>
+      </c>
+      <c r="F6" s="59">
+        <v>1</v>
+      </c>
+      <c r="G6" s="59">
+        <v>1024.001</v>
+      </c>
+      <c r="H6" s="60">
+        <v>0.25</v>
+      </c>
+      <c r="I6" s="59">
+        <v>1024.001</v>
+      </c>
+      <c r="J6" s="15">
+        <v>0.125</v>
+      </c>
+      <c r="K6" s="59">
+        <v>1024.001</v>
+      </c>
+      <c r="L6" s="60">
+        <v>0.25</v>
+      </c>
+      <c r="M6" s="59">
+        <v>1024.001</v>
+      </c>
+      <c r="N6" s="59">
+        <v>-8</v>
+      </c>
+      <c r="O6" s="59">
+        <v>1024.001</v>
+      </c>
+      <c r="P6" s="61">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="Q6" s="59">
+        <v>1024.001</v>
+      </c>
+      <c r="R6" s="59">
+        <v>1</v>
+      </c>
+      <c r="S6" s="59">
+        <v>1024.001</v>
+      </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -7676,22 +8162,54 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43"/>
-      <c r="O7" s="43"/>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="43"/>
-      <c r="R7" s="43"/>
-      <c r="S7" s="57"/>
+      <c r="D7" s="61">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="E7" s="59">
+        <v>1024.001</v>
+      </c>
+      <c r="F7" s="61">
+        <v>6.25E-2</v>
+      </c>
+      <c r="G7" s="59">
+        <v>1024.001</v>
+      </c>
+      <c r="H7" s="61">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="I7" s="59">
+        <v>1024.001</v>
+      </c>
+      <c r="J7" s="60">
+        <v>0.25</v>
+      </c>
+      <c r="K7" s="59">
+        <v>1024.001</v>
+      </c>
+      <c r="L7" s="59">
+        <v>1</v>
+      </c>
+      <c r="M7" s="59">
+        <v>1024.001</v>
+      </c>
+      <c r="N7" s="61">
+        <v>-1.5625E-2</v>
+      </c>
+      <c r="O7" s="59">
+        <v>1024.001</v>
+      </c>
+      <c r="P7" s="61">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="Q7" s="59">
+        <v>1024.001</v>
+      </c>
+      <c r="R7" s="60">
+        <v>0.25</v>
+      </c>
+      <c r="S7" s="59">
+        <v>1024.001</v>
+      </c>
     </row>
     <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
@@ -7699,22 +8217,54 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="43"/>
-      <c r="O8" s="43"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="43"/>
-      <c r="S8" s="57"/>
+      <c r="D8" s="61">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="E8" s="59">
+        <v>1024.001</v>
+      </c>
+      <c r="F8" s="60">
+        <v>0.25</v>
+      </c>
+      <c r="G8" s="59">
+        <v>1024.001</v>
+      </c>
+      <c r="H8" s="59">
+        <v>64</v>
+      </c>
+      <c r="I8" s="59">
+        <v>1024.001</v>
+      </c>
+      <c r="J8" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="K8" s="59">
+        <v>1024.001</v>
+      </c>
+      <c r="L8" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="M8" s="59">
+        <v>1024.001</v>
+      </c>
+      <c r="N8" s="15">
+        <v>-0.125</v>
+      </c>
+      <c r="O8" s="59">
+        <v>1024.001</v>
+      </c>
+      <c r="P8" s="61">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="Q8" s="59">
+        <v>1024.001</v>
+      </c>
+      <c r="R8" s="59">
+        <v>1</v>
+      </c>
+      <c r="S8" s="59">
+        <v>1024.001</v>
+      </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -7726,44 +8276,108 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="43"/>
-      <c r="O9" s="43"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="43"/>
-      <c r="R9" s="43"/>
-      <c r="S9" s="57"/>
+      <c r="D9" s="60">
+        <v>0.99</v>
+      </c>
+      <c r="E9" s="15">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="F9" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="G9" s="15">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="H9" s="60">
+        <v>0.99</v>
+      </c>
+      <c r="I9" s="15">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="J9" s="60">
+        <v>0.99</v>
+      </c>
+      <c r="K9" s="15">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="L9" s="38">
+        <v>0.3</v>
+      </c>
+      <c r="M9" s="15">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="N9" s="38">
+        <v>0.4</v>
+      </c>
+      <c r="O9" s="59">
+        <v>1</v>
+      </c>
+      <c r="P9" s="60">
+        <v>0.99</v>
+      </c>
+      <c r="Q9" s="15">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="R9" s="38">
+        <v>0.1</v>
+      </c>
+      <c r="S9" s="15">
+        <v>0.99099999999999999</v>
+      </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="43"/>
-      <c r="P10" s="43"/>
-      <c r="Q10" s="43"/>
-      <c r="R10" s="43"/>
-      <c r="S10" s="57"/>
+      <c r="D10" s="60">
+        <v>0.99</v>
+      </c>
+      <c r="E10" s="15">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="F10" s="38">
+        <v>0.1</v>
+      </c>
+      <c r="G10" s="15">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="H10" s="60">
+        <v>0.99</v>
+      </c>
+      <c r="I10" s="15">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="J10" s="38">
+        <v>0.3</v>
+      </c>
+      <c r="K10" s="15">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="L10" s="60">
+        <v>0.01</v>
+      </c>
+      <c r="M10" s="15">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="N10" s="60">
+        <v>0.99</v>
+      </c>
+      <c r="O10" s="59">
+        <v>1</v>
+      </c>
+      <c r="P10" s="60">
+        <v>0.99</v>
+      </c>
+      <c r="Q10" s="15">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="R10" s="60">
+        <v>0.01</v>
+      </c>
+      <c r="S10" s="15">
+        <v>0.99099999999999999</v>
+      </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -7773,22 +8387,54 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="43"/>
-      <c r="P11" s="43"/>
-      <c r="Q11" s="43"/>
-      <c r="R11" s="43"/>
-      <c r="S11" s="57"/>
+      <c r="D11" s="60">
+        <v>0.9</v>
+      </c>
+      <c r="E11" s="15">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="F11" s="60">
+        <v>0.9</v>
+      </c>
+      <c r="G11" s="15">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="H11" s="60">
+        <v>0.99</v>
+      </c>
+      <c r="I11" s="15">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="J11" s="60">
+        <v>0.99</v>
+      </c>
+      <c r="K11" s="15">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="L11" s="60">
+        <v>0.99</v>
+      </c>
+      <c r="M11" s="15">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="N11" s="38">
+        <v>0.7</v>
+      </c>
+      <c r="O11" s="59">
+        <v>1</v>
+      </c>
+      <c r="P11" s="60">
+        <v>0.99</v>
+      </c>
+      <c r="Q11" s="15">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="R11" s="38">
+        <v>0.1</v>
+      </c>
+      <c r="S11" s="15">
+        <v>0.99099999999999999</v>
+      </c>
     </row>
     <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
@@ -7796,22 +8442,54 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="43"/>
-      <c r="P12" s="43"/>
-      <c r="Q12" s="43"/>
-      <c r="R12" s="43"/>
-      <c r="S12" s="57"/>
+      <c r="D12" s="60">
+        <v>0.99</v>
+      </c>
+      <c r="E12" s="15">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="F12" s="60">
+        <v>0.01</v>
+      </c>
+      <c r="G12" s="15">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="H12" s="60">
+        <v>0.99</v>
+      </c>
+      <c r="I12" s="15">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="J12" s="38">
+        <v>0.1</v>
+      </c>
+      <c r="K12" s="15">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="L12" s="60">
+        <v>0.01</v>
+      </c>
+      <c r="M12" s="15">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="N12" s="38">
+        <v>0.8</v>
+      </c>
+      <c r="O12" s="59">
+        <v>1</v>
+      </c>
+      <c r="P12" s="60">
+        <v>0.99</v>
+      </c>
+      <c r="Q12" s="15">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="R12" s="38">
+        <v>0.1</v>
+      </c>
+      <c r="S12" s="15">
+        <v>0.99099999999999999</v>
+      </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -7823,44 +8501,108 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="43"/>
-      <c r="O13" s="43"/>
-      <c r="P13" s="43"/>
-      <c r="Q13" s="43"/>
-      <c r="R13" s="43"/>
-      <c r="S13" s="57"/>
+      <c r="D13" s="61">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="E13" s="59">
+        <v>4.0009765625</v>
+      </c>
+      <c r="F13" s="61">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="G13" s="59">
+        <v>128.0009765625</v>
+      </c>
+      <c r="H13" s="61">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="I13" s="15">
+        <v>0.5009765625</v>
+      </c>
+      <c r="J13" s="15">
+        <v>9.765625E-4</v>
+      </c>
+      <c r="K13" s="59">
+        <v>1024.0009765625</v>
+      </c>
+      <c r="L13" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="M13" s="15">
+        <v>1.0009765625</v>
+      </c>
+      <c r="N13" s="61">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="O13" s="61">
+        <v>8.7890625E-3</v>
+      </c>
+      <c r="P13" s="61">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="Q13" s="61">
+        <v>1.66015625E-2</v>
+      </c>
+      <c r="R13" s="61">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="S13" s="15">
+        <v>1.0009765625</v>
+      </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="43"/>
-      <c r="P14" s="43"/>
-      <c r="Q14" s="43"/>
-      <c r="R14" s="43"/>
-      <c r="S14" s="57"/>
+      <c r="D14" s="61">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="E14" s="59">
+        <v>32.0009765625</v>
+      </c>
+      <c r="F14" s="61">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="G14" s="61">
+        <v>8.7890625E-3</v>
+      </c>
+      <c r="H14" s="61">
+        <v>3.125E-2</v>
+      </c>
+      <c r="I14" s="59">
+        <v>512.0009765625</v>
+      </c>
+      <c r="J14" s="61">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="K14" s="59">
+        <v>16.0009765625</v>
+      </c>
+      <c r="L14" s="15">
+        <v>0.125</v>
+      </c>
+      <c r="M14" s="59">
+        <v>512.0009765625</v>
+      </c>
+      <c r="N14" s="61">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="O14" s="59">
+        <v>1.0009765625</v>
+      </c>
+      <c r="P14" s="61">
+        <v>9.765625E-4</v>
+      </c>
+      <c r="Q14" s="61">
+        <v>8.7890625E-3</v>
+      </c>
+      <c r="R14" s="61">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="S14" s="15">
+        <v>1.0009765625</v>
+      </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
@@ -7870,22 +8612,54 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="43"/>
-      <c r="P15" s="43"/>
-      <c r="Q15" s="43"/>
-      <c r="R15" s="43"/>
-      <c r="S15" s="57"/>
+      <c r="D15" s="59">
+        <v>2</v>
+      </c>
+      <c r="E15" s="15">
+        <v>0.1259765625</v>
+      </c>
+      <c r="F15" s="59">
+        <v>64</v>
+      </c>
+      <c r="G15" s="59">
+        <v>32.0009765625</v>
+      </c>
+      <c r="H15" s="59">
+        <v>256</v>
+      </c>
+      <c r="I15" s="38">
+        <v>0.5009765625</v>
+      </c>
+      <c r="J15" s="59">
+        <v>16</v>
+      </c>
+      <c r="K15" s="15">
+        <v>0.2509765625</v>
+      </c>
+      <c r="L15" s="59">
+        <v>8</v>
+      </c>
+      <c r="M15" s="59">
+        <v>64.0009765625</v>
+      </c>
+      <c r="N15" s="59">
+        <v>1</v>
+      </c>
+      <c r="O15" s="15">
+        <v>0.5009765625</v>
+      </c>
+      <c r="P15" s="59">
+        <v>16</v>
+      </c>
+      <c r="Q15" s="59">
+        <v>256.0009765625</v>
+      </c>
+      <c r="R15" s="59">
+        <v>512</v>
+      </c>
+      <c r="S15" s="15">
+        <v>2.0009765625</v>
+      </c>
     </row>
     <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
@@ -7893,22 +8667,54 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="43"/>
-      <c r="O16" s="43"/>
-      <c r="P16" s="43"/>
-      <c r="Q16" s="43"/>
-      <c r="R16" s="43"/>
-      <c r="S16" s="57"/>
+      <c r="D16" s="59">
+        <v>128</v>
+      </c>
+      <c r="E16" s="59">
+        <v>64.0009765625</v>
+      </c>
+      <c r="F16" s="59">
+        <v>1024</v>
+      </c>
+      <c r="G16" s="38">
+        <v>0.5009765625</v>
+      </c>
+      <c r="H16" s="15">
+        <v>9.765625E-4</v>
+      </c>
+      <c r="I16" s="59">
+        <v>2.0009765625</v>
+      </c>
+      <c r="J16" s="59">
+        <v>4</v>
+      </c>
+      <c r="K16" s="59">
+        <v>1.0009765625</v>
+      </c>
+      <c r="L16" s="61">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="M16" s="59">
+        <v>64.0009765625</v>
+      </c>
+      <c r="N16" s="59">
+        <v>2</v>
+      </c>
+      <c r="O16" s="61">
+        <v>2.9296875E-3</v>
+      </c>
+      <c r="P16" s="15">
+        <v>9.765625E-4</v>
+      </c>
+      <c r="Q16" s="15">
+        <v>0.1259765625</v>
+      </c>
+      <c r="R16" s="59">
+        <v>32</v>
+      </c>
+      <c r="S16" s="15">
+        <v>0.2509765625</v>
+      </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -7920,44 +8726,108 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="43"/>
-      <c r="N17" s="43"/>
-      <c r="O17" s="43"/>
-      <c r="P17" s="43"/>
-      <c r="Q17" s="43"/>
-      <c r="R17" s="43"/>
-      <c r="S17" s="57"/>
+      <c r="D17" s="59">
+        <v>16</v>
+      </c>
+      <c r="E17" s="59">
+        <v>1024.0009765625</v>
+      </c>
+      <c r="F17" s="59">
+        <v>16</v>
+      </c>
+      <c r="G17" s="59">
+        <v>256.0009765625</v>
+      </c>
+      <c r="H17" s="61">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="I17" s="59">
+        <v>64.0009765625</v>
+      </c>
+      <c r="J17" s="61">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="K17" s="61">
+        <v>6.34765625E-2</v>
+      </c>
+      <c r="L17" s="15">
+        <v>0.125</v>
+      </c>
+      <c r="M17" s="38">
+        <v>0.5009765625</v>
+      </c>
+      <c r="N17" s="59">
+        <v>-128</v>
+      </c>
+      <c r="O17" s="15">
+        <v>-9.765625E-4</v>
+      </c>
+      <c r="P17" s="61">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="Q17" s="59">
+        <v>8.0009765625</v>
+      </c>
+      <c r="R17" s="59">
+        <v>8</v>
+      </c>
+      <c r="S17" s="59">
+        <v>128.0009765625</v>
+      </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="43"/>
-      <c r="P18" s="43"/>
-      <c r="Q18" s="43"/>
-      <c r="R18" s="43"/>
-      <c r="S18" s="57"/>
+      <c r="D18" s="59">
+        <v>16</v>
+      </c>
+      <c r="E18" s="59">
+        <v>128.0009765625</v>
+      </c>
+      <c r="F18" s="61">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="G18" s="38">
+        <v>0.5009765625</v>
+      </c>
+      <c r="H18" s="61">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="I18" s="59">
+        <v>2.0009765625</v>
+      </c>
+      <c r="J18" s="59">
+        <v>1</v>
+      </c>
+      <c r="K18" s="59">
+        <v>256.0009765625</v>
+      </c>
+      <c r="L18" s="61">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="M18" s="15">
+        <v>0.1259765625</v>
+      </c>
+      <c r="N18" s="61">
+        <v>-64</v>
+      </c>
+      <c r="O18" s="15">
+        <v>0.1259765625</v>
+      </c>
+      <c r="P18" s="15">
+        <v>9.765625E-4</v>
+      </c>
+      <c r="Q18" s="59">
+        <v>32.0009765625</v>
+      </c>
+      <c r="R18" s="61">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="S18" s="59">
+        <v>16.0009765625</v>
+      </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
@@ -7967,22 +8837,54 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="43"/>
-      <c r="O19" s="43"/>
-      <c r="P19" s="43"/>
-      <c r="Q19" s="43"/>
-      <c r="R19" s="43"/>
-      <c r="S19" s="57"/>
+      <c r="D19" s="61">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E19" s="59">
+        <v>32.0009765625</v>
+      </c>
+      <c r="F19" s="60">
+        <v>0.25</v>
+      </c>
+      <c r="G19" s="59">
+        <v>64.0009765625</v>
+      </c>
+      <c r="H19" s="61">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="I19" s="61">
+        <v>3.22265625E-2</v>
+      </c>
+      <c r="J19" s="61">
+        <v>3.125E-2</v>
+      </c>
+      <c r="K19" s="59">
+        <v>32.0009765625</v>
+      </c>
+      <c r="L19" s="61">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="M19" s="59">
+        <v>16.0009765625</v>
+      </c>
+      <c r="N19" s="60">
+        <v>-0.25</v>
+      </c>
+      <c r="O19" s="59">
+        <v>32.0009765625</v>
+      </c>
+      <c r="P19" s="61">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="Q19" s="59">
+        <v>8.0009765625</v>
+      </c>
+      <c r="R19" s="61">
+        <v>3.125E-2</v>
+      </c>
+      <c r="S19" s="15">
+        <v>0.5009765625</v>
+      </c>
     </row>
     <row r="20" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
@@ -7990,22 +8892,54 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="43"/>
-      <c r="N20" s="43"/>
-      <c r="O20" s="43"/>
-      <c r="P20" s="43"/>
-      <c r="Q20" s="43"/>
-      <c r="R20" s="43"/>
-      <c r="S20" s="57"/>
+      <c r="D20" s="61">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="E20" s="59">
+        <v>32.0009765625</v>
+      </c>
+      <c r="F20" s="61">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="G20" s="61">
+        <v>4.8828125E-3</v>
+      </c>
+      <c r="H20" s="61">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="I20" s="15">
+        <v>0.5009765625</v>
+      </c>
+      <c r="J20" s="61">
+        <v>3.125E-2</v>
+      </c>
+      <c r="K20" s="61">
+        <v>6.34765625E-2</v>
+      </c>
+      <c r="L20" s="61">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="M20" s="59">
+        <v>1.0009765625</v>
+      </c>
+      <c r="N20" s="59">
+        <v>4</v>
+      </c>
+      <c r="O20" s="59">
+        <v>8.0009765625</v>
+      </c>
+      <c r="P20" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q20" s="15">
+        <v>0.5009765625</v>
+      </c>
+      <c r="R20" s="61">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="S20" s="15">
+        <v>0.5009765625</v>
+      </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
